--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_9_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_9_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87002.40329869666</v>
+        <v>116458.3628073219</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5331221.098409854</v>
+        <v>5691415.601269295</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22753430.4197904</v>
+        <v>22818123.81535394</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4867877.2487146</v>
+        <v>4798402.837097867</v>
       </c>
     </row>
     <row r="11">
@@ -7982,16 +7984,16 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L2" t="n">
-        <v>215.1060201295988</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M2" t="n">
-        <v>200.3199103700811</v>
+        <v>262.1171336583936</v>
       </c>
       <c r="N2" t="n">
-        <v>197.8755926931642</v>
+        <v>260.6727596612894</v>
       </c>
       <c r="O2" t="n">
-        <v>203.2816633332895</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P2" t="n">
         <v>208.5255628951208</v>
@@ -8058,22 +8060,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K3" t="n">
-        <v>128.4574862423794</v>
+        <v>158.8643559162101</v>
       </c>
       <c r="L3" t="n">
-        <v>115.6425992455544</v>
+        <v>156.5283879628043</v>
       </c>
       <c r="M3" t="n">
-        <v>111.0955404568352</v>
+        <v>158.8073274317979</v>
       </c>
       <c r="N3" t="n">
-        <v>96.27980096165828</v>
+        <v>145.2543769669952</v>
       </c>
       <c r="O3" t="n">
-        <v>115.4591779348292</v>
+        <v>160.2613470196622</v>
       </c>
       <c r="P3" t="n">
-        <v>116.4907560372702</v>
+        <v>152.4484465568465</v>
       </c>
       <c r="Q3" t="n">
         <v>136.1300824528302</v>
@@ -8216,19 +8218,19 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K5" t="n">
-        <v>203.4233583632197</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L5" t="n">
-        <v>206.8897655221818</v>
+        <v>255.8266834221102</v>
       </c>
       <c r="M5" t="n">
-        <v>191.1777440165516</v>
+        <v>245.6294943148315</v>
       </c>
       <c r="N5" t="n">
-        <v>188.5854965301939</v>
+        <v>243.9183330758522</v>
       </c>
       <c r="O5" t="n">
-        <v>194.5092889627086</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P5" t="n">
         <v>208.5255628951208</v>
@@ -8295,25 +8297,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K6" t="n">
-        <v>123.9591504587257</v>
+        <v>150.7517341174952</v>
       </c>
       <c r="L6" t="n">
-        <v>109.5940316553169</v>
+        <v>145.6199667947194</v>
       </c>
       <c r="M6" t="n">
-        <v>104.0371473715302</v>
+        <v>146.0777144456295</v>
       </c>
       <c r="N6" t="n">
-        <v>89.0345932142894</v>
+        <v>132.1878490032285</v>
       </c>
       <c r="O6" t="n">
-        <v>108.831228312213</v>
+        <v>148.3080266862594</v>
       </c>
       <c r="P6" t="n">
-        <v>111.1712421347601</v>
+        <v>142.8548531659551</v>
       </c>
       <c r="Q6" t="n">
-        <v>135.831616742848</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R6" t="n">
         <v>29.49804203773589</v>
@@ -8453,22 +8455,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K8" t="n">
-        <v>122.0365346358061</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L8" t="n">
-        <v>105.9222139730819</v>
+        <v>215.1060201295988</v>
       </c>
       <c r="M8" t="n">
-        <v>78.83188855375113</v>
+        <v>200.3199103700812</v>
       </c>
       <c r="N8" t="n">
-        <v>74.42176767202952</v>
+        <v>197.8755926931642</v>
       </c>
       <c r="O8" t="n">
-        <v>86.70771710415687</v>
+        <v>203.2816633332895</v>
       </c>
       <c r="P8" t="n">
-        <v>116.5194153913583</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q8" t="n">
         <v>137.5801139476182</v>
@@ -8532,25 +8534,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>68.68019772140313</v>
+        <v>128.4574862423794</v>
       </c>
       <c r="L9" t="n">
-        <v>35.26465785350914</v>
+        <v>115.6425992455544</v>
       </c>
       <c r="M9" t="n">
-        <v>17.29827403488881</v>
+        <v>111.0955404568352</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>96.27980096165827</v>
       </c>
       <c r="O9" t="n">
-        <v>27.38196984081287</v>
+        <v>115.4591779348292</v>
       </c>
       <c r="P9" t="n">
-        <v>45.80103151799199</v>
+        <v>116.4907560372702</v>
       </c>
       <c r="Q9" t="n">
-        <v>92.13336211952077</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R9" t="n">
         <v>29.49804203773589</v>
@@ -8614,16 +8616,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L10" t="n">
-        <v>87.76745019286051</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M10" t="n">
-        <v>88.5232124679478</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N10" t="n">
-        <v>76.73531661208723</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O10" t="n">
-        <v>95.90977625558899</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P10" t="n">
         <v>87.48425302749862</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>104.889258789408</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K11" t="n">
-        <v>94.6755543817487</v>
+        <v>68.98158147698734</v>
       </c>
       <c r="L11" t="n">
-        <v>71.97849854454961</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M11" t="n">
-        <v>41.06296488573622</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N11" t="n">
-        <v>36.04170333287215</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>50.4665106791827</v>
+        <v>16.43335224433224</v>
       </c>
       <c r="P11" t="n">
-        <v>85.5883841775869</v>
+        <v>56.54187083839042</v>
       </c>
       <c r="Q11" t="n">
-        <v>123.6377068975464</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R11" t="n">
         <v>42.58424007769262</v>
@@ -8766,13 +8768,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J12" t="n">
-        <v>81.70699090058493</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K12" t="n">
-        <v>50.09627633166345</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L12" t="n">
-        <v>10.27628214666007</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>23.82458668363594</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q12" t="n">
-        <v>77.442690741435</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -8851,19 +8853,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L13" t="n">
-        <v>73.42283224274789</v>
+        <v>59.95218091677093</v>
       </c>
       <c r="M13" t="n">
-        <v>73.3988241034014</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N13" t="n">
-        <v>61.97055239817956</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O13" t="n">
-        <v>82.27212675770768</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P13" t="n">
-        <v>87.48425302749862</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q13" t="n">
         <v>42.34223702878295</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>104.889258789408</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K14" t="n">
-        <v>94.6755543817487</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L14" t="n">
-        <v>71.97849854454961</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M14" t="n">
-        <v>41.06296488573622</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N14" t="n">
-        <v>36.04170333287215</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>50.4665106791827</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P14" t="n">
-        <v>85.5883841775869</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q14" t="n">
-        <v>123.6377068975464</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R14" t="n">
         <v>42.58424007769262</v>
@@ -9003,13 +9005,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
-        <v>81.70699090058493</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K15" t="n">
-        <v>50.09627633166345</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L15" t="n">
-        <v>10.27628214666007</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>23.82458668363594</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q15" t="n">
-        <v>77.442690741435</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9088,19 +9090,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L16" t="n">
-        <v>73.42283224274789</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M16" t="n">
-        <v>73.3988241034014</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N16" t="n">
-        <v>61.97055239817956</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O16" t="n">
-        <v>82.27212675770768</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P16" t="n">
-        <v>87.48425302749862</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q16" t="n">
         <v>42.34223702878295</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>104.889258789408</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K17" t="n">
-        <v>94.6755543817487</v>
+        <v>68.98158147698734</v>
       </c>
       <c r="L17" t="n">
-        <v>71.97849854454961</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M17" t="n">
-        <v>41.06296488573622</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N17" t="n">
-        <v>36.04170333287215</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>50.4665106791827</v>
+        <v>16.43335224433224</v>
       </c>
       <c r="P17" t="n">
-        <v>85.5883841775869</v>
+        <v>56.54187083839042</v>
       </c>
       <c r="Q17" t="n">
-        <v>123.6377068975464</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R17" t="n">
         <v>42.58424007769262</v>
@@ -9240,13 +9242,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J18" t="n">
-        <v>81.70699090058493</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K18" t="n">
-        <v>50.09627633166345</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L18" t="n">
-        <v>10.27628214666007</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>23.82458668363594</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q18" t="n">
-        <v>77.442690741435</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9325,19 +9327,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L19" t="n">
-        <v>73.42283224274789</v>
+        <v>59.95218091677093</v>
       </c>
       <c r="M19" t="n">
-        <v>73.3988241034014</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N19" t="n">
-        <v>61.97055239817956</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O19" t="n">
-        <v>82.27212675770768</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P19" t="n">
-        <v>87.48425302749862</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q19" t="n">
         <v>42.34223702878295</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>104.889258789408</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K20" t="n">
-        <v>94.6755543817487</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L20" t="n">
-        <v>71.97849854454961</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M20" t="n">
-        <v>41.06296488573622</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N20" t="n">
-        <v>36.04170333287215</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>50.4665106791827</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P20" t="n">
-        <v>85.5883841775869</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q20" t="n">
-        <v>123.6377068975464</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R20" t="n">
         <v>42.58424007769262</v>
@@ -9477,13 +9479,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>81.70699090058493</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K21" t="n">
-        <v>50.09627633166345</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L21" t="n">
-        <v>10.27628214666007</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>23.82458668363594</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q21" t="n">
-        <v>77.442690741435</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9562,19 +9564,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L22" t="n">
-        <v>73.42283224274789</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M22" t="n">
-        <v>73.3988241034014</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N22" t="n">
-        <v>61.97055239817956</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O22" t="n">
-        <v>82.27212675770768</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P22" t="n">
-        <v>87.48425302749862</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q22" t="n">
         <v>42.34223702878295</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>104.889258789408</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K23" t="n">
-        <v>94.6755543817487</v>
+        <v>68.98158147698734</v>
       </c>
       <c r="L23" t="n">
-        <v>71.97849854454961</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M23" t="n">
-        <v>41.06296488573622</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N23" t="n">
-        <v>36.04170333287215</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>50.4665106791827</v>
+        <v>16.43335224433224</v>
       </c>
       <c r="P23" t="n">
-        <v>85.5883841775869</v>
+        <v>56.54187083839042</v>
       </c>
       <c r="Q23" t="n">
-        <v>123.6377068975464</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R23" t="n">
         <v>42.58424007769262</v>
@@ -9714,13 +9716,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>81.70699090058493</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K24" t="n">
-        <v>50.09627633166345</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L24" t="n">
-        <v>10.27628214666007</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>23.82458668363594</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q24" t="n">
-        <v>77.442690741435</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9799,19 +9801,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L25" t="n">
-        <v>73.42283224274789</v>
+        <v>59.95218091677093</v>
       </c>
       <c r="M25" t="n">
-        <v>73.3988241034014</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N25" t="n">
-        <v>61.97055239817956</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O25" t="n">
-        <v>82.27212675770768</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P25" t="n">
-        <v>87.48425302749862</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q25" t="n">
         <v>42.34223702878295</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>104.889258789408</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K26" t="n">
-        <v>94.6755543817487</v>
+        <v>68.98158147698734</v>
       </c>
       <c r="L26" t="n">
-        <v>71.97849854454961</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M26" t="n">
-        <v>41.06296488573622</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N26" t="n">
-        <v>36.04170333287215</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>50.4665106791827</v>
+        <v>16.43335224433224</v>
       </c>
       <c r="P26" t="n">
-        <v>85.5883841775869</v>
+        <v>56.54187083839042</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.6377068975464</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R26" t="n">
         <v>42.58424007769262</v>
@@ -9951,13 +9953,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>81.70699090058493</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K27" t="n">
-        <v>50.09627633166345</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L27" t="n">
-        <v>10.27628214666007</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>23.82458668363594</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q27" t="n">
-        <v>77.442690741435</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10036,19 +10038,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>73.42283224274789</v>
+        <v>59.95218091677093</v>
       </c>
       <c r="M28" t="n">
-        <v>73.3988241034014</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N28" t="n">
-        <v>61.97055239817956</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O28" t="n">
-        <v>82.27212675770768</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P28" t="n">
-        <v>87.48425302749862</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q28" t="n">
         <v>42.34223702878295</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>104.889258789408</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K29" t="n">
-        <v>94.6755543817487</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L29" t="n">
-        <v>71.97849854454961</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M29" t="n">
-        <v>41.06296488573622</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N29" t="n">
-        <v>36.04170333287215</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>50.4665106791827</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P29" t="n">
-        <v>85.5883841775869</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.6377068975464</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R29" t="n">
         <v>42.58424007769262</v>
@@ -10188,13 +10190,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>81.70699090058493</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K30" t="n">
-        <v>50.09627633166345</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L30" t="n">
-        <v>10.27628214666007</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>23.82458668363594</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q30" t="n">
-        <v>77.442690741435</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10273,19 +10275,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
-        <v>73.42283224274789</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M31" t="n">
-        <v>73.3988241034014</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N31" t="n">
-        <v>61.97055239817956</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O31" t="n">
-        <v>82.27212675770768</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P31" t="n">
-        <v>87.48425302749862</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q31" t="n">
         <v>42.34223702878295</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>104.889258789408</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K32" t="n">
-        <v>94.6755543817487</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L32" t="n">
-        <v>71.97849854454961</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M32" t="n">
-        <v>41.06296488573622</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N32" t="n">
-        <v>36.04170333287215</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>50.4665106791827</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P32" t="n">
-        <v>85.5883841775869</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q32" t="n">
-        <v>123.6377068975464</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R32" t="n">
         <v>42.58424007769262</v>
@@ -10425,13 +10427,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>81.70699090058493</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K33" t="n">
-        <v>50.09627633166345</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L33" t="n">
-        <v>10.27628214666007</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>23.82458668363594</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q33" t="n">
-        <v>77.442690741435</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10510,19 +10512,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L34" t="n">
-        <v>73.42283224274789</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M34" t="n">
-        <v>73.3988241034014</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N34" t="n">
-        <v>61.97055239817956</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O34" t="n">
-        <v>82.27212675770768</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P34" t="n">
-        <v>87.48425302749862</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q34" t="n">
         <v>42.34223702878295</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>104.889258789408</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K35" t="n">
-        <v>94.6755543817487</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L35" t="n">
-        <v>71.97849854454961</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M35" t="n">
-        <v>41.06296488573622</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N35" t="n">
-        <v>36.04170333287215</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>50.4665106791827</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P35" t="n">
-        <v>85.5883841775869</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q35" t="n">
-        <v>123.6377068975464</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R35" t="n">
         <v>42.58424007769262</v>
@@ -10662,13 +10664,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>81.70699090058493</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K36" t="n">
-        <v>50.09627633166345</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L36" t="n">
-        <v>10.27628214666007</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>23.82458668363594</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q36" t="n">
-        <v>77.442690741435</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10747,19 +10749,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>73.42283224274789</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M37" t="n">
-        <v>73.3988241034014</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N37" t="n">
-        <v>61.97055239817956</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O37" t="n">
-        <v>82.27212675770768</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P37" t="n">
-        <v>87.48425302749862</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q37" t="n">
         <v>42.34223702878295</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>104.889258789408</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K38" t="n">
-        <v>94.6755543817487</v>
+        <v>68.98158147698734</v>
       </c>
       <c r="L38" t="n">
-        <v>71.97849854454961</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M38" t="n">
-        <v>41.06296488573622</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N38" t="n">
-        <v>36.04170333287215</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>50.4665106791827</v>
+        <v>16.43335224433224</v>
       </c>
       <c r="P38" t="n">
-        <v>85.5883841775869</v>
+        <v>56.54187083839042</v>
       </c>
       <c r="Q38" t="n">
-        <v>123.6377068975464</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R38" t="n">
         <v>42.58424007769262</v>
@@ -10899,13 +10901,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>81.70699090058493</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K39" t="n">
-        <v>50.09627633166345</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L39" t="n">
-        <v>10.27628214666007</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>23.82458668363594</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q39" t="n">
-        <v>77.442690741435</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -10984,19 +10986,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
-        <v>73.42283224274789</v>
+        <v>59.95218091677093</v>
       </c>
       <c r="M40" t="n">
-        <v>73.3988241034014</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N40" t="n">
-        <v>61.97055239817956</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O40" t="n">
-        <v>82.27212675770768</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P40" t="n">
-        <v>87.48425302749862</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q40" t="n">
         <v>42.34223702878295</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>104.889258789408</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K41" t="n">
-        <v>94.6755543817487</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L41" t="n">
-        <v>71.97849854454961</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M41" t="n">
-        <v>41.06296488573622</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N41" t="n">
-        <v>36.04170333287215</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>50.4665106791827</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P41" t="n">
-        <v>85.5883841775869</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q41" t="n">
-        <v>123.6377068975464</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R41" t="n">
         <v>42.58424007769262</v>
@@ -11136,13 +11138,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>81.70699090058493</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K42" t="n">
-        <v>50.09627633166345</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L42" t="n">
-        <v>10.27628214666007</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>23.82458668363594</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q42" t="n">
-        <v>77.442690741435</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11221,19 +11223,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>73.42283224274789</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M43" t="n">
-        <v>73.3988241034014</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N43" t="n">
-        <v>61.97055239817956</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O43" t="n">
-        <v>82.27212675770768</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P43" t="n">
-        <v>87.48425302749862</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q43" t="n">
         <v>42.34223702878295</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>104.889258789408</v>
+        <v>85.09801597620873</v>
       </c>
       <c r="K44" t="n">
-        <v>94.6755543817487</v>
+        <v>65.01361175520637</v>
       </c>
       <c r="L44" t="n">
-        <v>71.97849854454961</v>
+        <v>35.18023582793884</v>
       </c>
       <c r="M44" t="n">
-        <v>41.06296488573622</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N44" t="n">
-        <v>36.04170333287215</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>50.4665106791827</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P44" t="n">
-        <v>85.5883841775869</v>
+        <v>52.05616184039113</v>
       </c>
       <c r="Q44" t="n">
-        <v>123.6377068975464</v>
+        <v>98.45640440597657</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11373,13 +11375,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>81.70699090058493</v>
+        <v>73.87346532306307</v>
       </c>
       <c r="K45" t="n">
-        <v>50.09627633166345</v>
+        <v>29.94951240287884</v>
       </c>
       <c r="L45" t="n">
-        <v>10.27628214666007</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>23.82458668363594</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>77.442690741435</v>
+        <v>61.51658548073077</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -11458,19 +11460,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>73.42283224274789</v>
+        <v>57.87188228828438</v>
       </c>
       <c r="M46" t="n">
-        <v>73.3988241034014</v>
+        <v>57.00252778049483</v>
       </c>
       <c r="N46" t="n">
-        <v>61.97055239817956</v>
+        <v>45.96412335430749</v>
       </c>
       <c r="O46" t="n">
-        <v>82.27212675770768</v>
+        <v>67.48759882007782</v>
       </c>
       <c r="P46" t="n">
-        <v>87.48425302749862</v>
+        <v>81.23780951643748</v>
       </c>
       <c r="Q46" t="n">
         <v>42.34223702878295</v>
@@ -22559,19 +22561,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G2" t="n">
-        <v>418.7852877910533</v>
+        <v>419.1372257337943</v>
       </c>
       <c r="H2" t="n">
-        <v>346.4797883449514</v>
+        <v>350.0840728010472</v>
       </c>
       <c r="I2" t="n">
-        <v>238.9709136375527</v>
+        <v>252.5390011750733</v>
       </c>
       <c r="J2" t="n">
-        <v>72.29305613191724</v>
+        <v>102.1633490996273</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>44.7678260839346</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -22583,25 +22585,25 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>15.82072992502536</v>
       </c>
       <c r="P2" t="n">
-        <v>7.487018569236724</v>
+        <v>58.0961346578143</v>
       </c>
       <c r="Q2" t="n">
-        <v>84.00073346332248</v>
+        <v>122.0060719774896</v>
       </c>
       <c r="R2" t="n">
-        <v>191.5594972221508</v>
+        <v>213.6669190178523</v>
       </c>
       <c r="S2" t="n">
-        <v>226.3118737107229</v>
+        <v>234.3316595809324</v>
       </c>
       <c r="T2" t="n">
-        <v>222.2343765611613</v>
+        <v>223.7749849055099</v>
       </c>
       <c r="U2" t="n">
-        <v>250.1463106789221</v>
+        <v>250.1744657143414</v>
       </c>
       <c r="V2" t="n">
         <v>320.879783609152</v>
@@ -22638,16 +22640,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G3" t="n">
-        <v>148.7163084132398</v>
+        <v>148.9046118134526</v>
       </c>
       <c r="H3" t="n">
-        <v>125.4622442034314</v>
+        <v>127.2808586212757</v>
       </c>
       <c r="I3" t="n">
-        <v>106.3891819146546</v>
+        <v>112.8724349482959</v>
       </c>
       <c r="J3" t="n">
-        <v>49.80181311049407</v>
+        <v>67.59235497006948</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22668,19 +22670,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.257488459218298</v>
+        <v>27.29425231795664</v>
       </c>
       <c r="R3" t="n">
-        <v>132.9629628724363</v>
+        <v>144.6542915277517</v>
       </c>
       <c r="S3" t="n">
-        <v>191.0652043902942</v>
+        <v>194.5628574600357</v>
       </c>
       <c r="T3" t="n">
-        <v>214.8568706212155</v>
+        <v>215.61586546681</v>
       </c>
       <c r="U3" t="n">
-        <v>237.2262079139026</v>
+        <v>237.2385962954956</v>
       </c>
       <c r="V3" t="n">
         <v>240.6489209154022</v>
@@ -22717,49 +22719,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G4" t="n">
-        <v>168.6770524598119</v>
+        <v>168.8349197050291</v>
       </c>
       <c r="H4" t="n">
-        <v>165.6134833541297</v>
+        <v>167.0170666797881</v>
       </c>
       <c r="I4" t="n">
-        <v>164.1395687773966</v>
+        <v>168.8870673881104</v>
       </c>
       <c r="J4" t="n">
-        <v>118.5624291419324</v>
+        <v>129.7236433787886</v>
       </c>
       <c r="K4" t="n">
-        <v>64.27386075180667</v>
+        <v>82.61516433249618</v>
       </c>
       <c r="L4" t="n">
-        <v>28.62493233102187</v>
+        <v>52.09548622449577</v>
       </c>
       <c r="M4" t="n">
-        <v>21.49826081386603</v>
+        <v>46.24466908004986</v>
       </c>
       <c r="N4" t="n">
-        <v>12.88997288979596</v>
+        <v>37.04796687835205</v>
       </c>
       <c r="O4" t="n">
-        <v>34.12582106858778</v>
+        <v>56.43963860165199</v>
       </c>
       <c r="P4" t="n">
-        <v>55.60947430480697</v>
+        <v>74.70280003544025</v>
       </c>
       <c r="Q4" t="n">
-        <v>125.2305528121096</v>
+        <v>138.4497818638882</v>
       </c>
       <c r="R4" t="n">
-        <v>202.3633127604856</v>
+        <v>209.4615981681609</v>
       </c>
       <c r="S4" t="n">
-        <v>235.0246264580731</v>
+        <v>237.7758219951765</v>
       </c>
       <c r="T4" t="n">
-        <v>223.6601988171407</v>
+        <v>224.3347225012506</v>
       </c>
       <c r="U4" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6638739564498</v>
       </c>
       <c r="V4" t="n">
         <v>245.1090151844499</v>
@@ -22796,19 +22798,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G5" t="n">
-        <v>418.7332227459356</v>
+        <v>419.0433278923953</v>
       </c>
       <c r="H5" t="n">
-        <v>345.9465772016394</v>
+        <v>349.1224415328191</v>
       </c>
       <c r="I5" t="n">
-        <v>236.9636759856512</v>
+        <v>248.9190046445362</v>
       </c>
       <c r="J5" t="n">
-        <v>67.87410050885586</v>
+        <v>94.19388718318407</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>32.82366854106931</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -22823,22 +22825,22 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>44.59350769232816</v>
       </c>
       <c r="Q5" t="n">
-        <v>78.37829432236464</v>
+        <v>111.8661614571072</v>
       </c>
       <c r="R5" t="n">
-        <v>188.2889663317739</v>
+        <v>207.7686087380687</v>
       </c>
       <c r="S5" t="n">
-        <v>225.1254414951025</v>
+        <v>232.1919625200514</v>
       </c>
       <c r="T5" t="n">
-        <v>222.0064618261584</v>
+        <v>223.3639471047855</v>
       </c>
       <c r="U5" t="n">
-        <v>250.1421454753127</v>
+        <v>250.1669538870295</v>
       </c>
       <c r="V5" t="n">
         <v>320.879783609152</v>
@@ -22875,16 +22877,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G6" t="n">
-        <v>148.6884511582035</v>
+        <v>148.8543720391606</v>
       </c>
       <c r="H6" t="n">
-        <v>125.193201766633</v>
+        <v>126.7956481695613</v>
       </c>
       <c r="I6" t="n">
-        <v>105.430061510991</v>
+        <v>111.1426883334193</v>
       </c>
       <c r="J6" t="n">
-        <v>47.16991341427537</v>
+        <v>62.8457980489157</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22905,19 +22907,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>20.88118919956569</v>
       </c>
       <c r="R6" t="n">
-        <v>131.2333694413202</v>
+        <v>141.5350185239054</v>
       </c>
       <c r="S6" t="n">
-        <v>190.5477680960885</v>
+        <v>193.6296756875513</v>
       </c>
       <c r="T6" t="n">
-        <v>214.7445863344682</v>
+        <v>215.4133639204314</v>
       </c>
       <c r="U6" t="n">
-        <v>237.2243751997555</v>
+        <v>237.2352910471869</v>
       </c>
       <c r="V6" t="n">
         <v>240.6489209154022</v>
@@ -22954,49 +22956,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G7" t="n">
-        <v>168.6536978729753</v>
+        <v>168.7928003659262</v>
       </c>
       <c r="H7" t="n">
-        <v>165.4058398457096</v>
+        <v>166.6425874648544</v>
       </c>
       <c r="I7" t="n">
-        <v>163.4372326568916</v>
+        <v>167.6204239903589</v>
       </c>
       <c r="J7" t="n">
-        <v>116.9112598525832</v>
+        <v>126.7458061042081</v>
       </c>
       <c r="K7" t="n">
-        <v>61.5604823902426</v>
+        <v>77.72166293489558</v>
       </c>
       <c r="L7" t="n">
-        <v>25.15274221169333</v>
+        <v>45.83348920913111</v>
       </c>
       <c r="M7" t="n">
-        <v>17.83732317001242</v>
+        <v>39.64227122411658</v>
       </c>
       <c r="N7" t="n">
-        <v>9.31608416051521</v>
+        <v>30.60255928634805</v>
       </c>
       <c r="O7" t="n">
-        <v>30.82475637644394</v>
+        <v>50.48626147098734</v>
       </c>
       <c r="P7" t="n">
-        <v>52.78484318413026</v>
+        <v>69.60865742247636</v>
       </c>
       <c r="Q7" t="n">
-        <v>123.2749246361811</v>
+        <v>134.9228615686379</v>
       </c>
       <c r="R7" t="n">
-        <v>201.3132056105407</v>
+        <v>207.5677595208579</v>
       </c>
       <c r="S7" t="n">
-        <v>234.6176197038384</v>
+        <v>237.0417967855364</v>
       </c>
       <c r="T7" t="n">
-        <v>223.5604110370206</v>
+        <v>224.154758052356</v>
       </c>
       <c r="U7" t="n">
-        <v>288.6539891292468</v>
+        <v>288.6615765379532</v>
       </c>
       <c r="V7" t="n">
         <v>245.1090151844499</v>
@@ -23033,16 +23035,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G8" t="n">
-        <v>418.0934080885264</v>
+        <v>418.7852877910533</v>
       </c>
       <c r="H8" t="n">
-        <v>339.3940753414476</v>
+        <v>346.4797883449514</v>
       </c>
       <c r="I8" t="n">
-        <v>212.2972214058836</v>
+        <v>238.9709136375527</v>
       </c>
       <c r="J8" t="n">
-        <v>13.57063122957307</v>
+        <v>72.29305613191724</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23060,22 +23062,22 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>7.487018569236724</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.285509237068553</v>
+        <v>84.00073346332248</v>
       </c>
       <c r="R8" t="n">
-        <v>148.0982088582942</v>
+        <v>191.5594972221508</v>
       </c>
       <c r="S8" t="n">
-        <v>210.5456649893907</v>
+        <v>226.3118737107229</v>
       </c>
       <c r="T8" t="n">
-        <v>219.2056731633497</v>
+        <v>222.2343765611613</v>
       </c>
       <c r="U8" t="n">
-        <v>250.09096030272</v>
+        <v>250.1463106789221</v>
       </c>
       <c r="V8" t="n">
         <v>320.879783609152</v>
@@ -23112,16 +23114,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>148.3461201365529</v>
+        <v>148.7163084132398</v>
       </c>
       <c r="H9" t="n">
-        <v>121.887004794376</v>
+        <v>125.4622442034314</v>
       </c>
       <c r="I9" t="n">
-        <v>93.64366449363538</v>
+        <v>106.3891819146546</v>
       </c>
       <c r="J9" t="n">
-        <v>14.8271391275419</v>
+        <v>49.80181311049407</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23142,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>3.257488459218298</v>
       </c>
       <c r="R9" t="n">
-        <v>109.9788170619971</v>
+        <v>132.9629628724363</v>
       </c>
       <c r="S9" t="n">
-        <v>184.1891195141138</v>
+        <v>191.0652043902942</v>
       </c>
       <c r="T9" t="n">
-        <v>213.3647520849204</v>
+        <v>214.8568706212155</v>
       </c>
       <c r="U9" t="n">
-        <v>237.2018534220153</v>
+        <v>237.2262079139026</v>
       </c>
       <c r="V9" t="n">
         <v>240.6489209154022</v>
@@ -23191,49 +23193,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G10" t="n">
-        <v>168.3666990440678</v>
+        <v>168.6770524598119</v>
       </c>
       <c r="H10" t="n">
-        <v>162.8541593486954</v>
+        <v>165.6134833541297</v>
       </c>
       <c r="I10" t="n">
-        <v>154.8063951475636</v>
+        <v>164.1395687773966</v>
       </c>
       <c r="J10" t="n">
-        <v>96.62044264882138</v>
+        <v>118.5624291419324</v>
       </c>
       <c r="K10" t="n">
-        <v>28.2164366317142</v>
+        <v>64.27386075180667</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>28.62493233102187</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>21.49826081386603</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>12.88997288979596</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>34.12582106858778</v>
       </c>
       <c r="P10" t="n">
-        <v>18.07363936789694</v>
+        <v>55.60947430480697</v>
       </c>
       <c r="Q10" t="n">
-        <v>99.24268633557031</v>
+        <v>125.2305528121096</v>
       </c>
       <c r="R10" t="n">
-        <v>188.4086946307534</v>
+        <v>202.3633127604856</v>
       </c>
       <c r="S10" t="n">
-        <v>229.6160128400592</v>
+        <v>235.0246264580731</v>
       </c>
       <c r="T10" t="n">
-        <v>222.3341433135066</v>
+        <v>223.6601988171407</v>
       </c>
       <c r="U10" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6552630158016</v>
       </c>
       <c r="V10" t="n">
         <v>245.1090151844499</v>
@@ -23270,13 +23272,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>417.8783123837688</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H11" t="n">
-        <v>337.191226455099</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I11" t="n">
-        <v>204.0047442482169</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>134.5867032943157</v>
+        <v>121.8984057757385</v>
       </c>
       <c r="S11" t="n">
-        <v>205.6441716172273</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T11" t="n">
-        <v>218.2640917157734</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23349,16 +23351,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H12" t="n">
-        <v>120.7755129590769</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I12" t="n">
-        <v>89.68126172020311</v>
+        <v>85.96027407454947</v>
       </c>
       <c r="J12" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>102.8333681880216</v>
+        <v>96.12326613555375</v>
       </c>
       <c r="S12" t="n">
-        <v>182.0514410751984</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T12" t="n">
-        <v>212.9008733398524</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23428,19 +23430,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.2702145158476</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H13" t="n">
-        <v>161.9963241796108</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I13" t="n">
-        <v>151.9048422443612</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J13" t="n">
-        <v>89.79898650365654</v>
+        <v>83.39313745375298</v>
       </c>
       <c r="K13" t="n">
-        <v>17.00668871668184</v>
+        <v>6.479910928618636</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,22 +23457,22 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>6.404274245706759</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.16342279524457</v>
+        <v>83.57640008743158</v>
       </c>
       <c r="R13" t="n">
-        <v>184.0703993891455</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S13" t="n">
-        <v>227.9345506528043</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T13" t="n">
-        <v>221.9218912383841</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23507,13 +23509,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>417.8783123837688</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H14" t="n">
-        <v>337.191226455099</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I14" t="n">
-        <v>204.0047442482169</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>134.5867032943157</v>
+        <v>121.8984057757385</v>
       </c>
       <c r="S14" t="n">
-        <v>205.6441716172273</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T14" t="n">
-        <v>218.2640917157734</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23586,16 +23588,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H15" t="n">
-        <v>120.7755129590769</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I15" t="n">
-        <v>89.68126172020311</v>
+        <v>85.96027407454947</v>
       </c>
       <c r="J15" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>102.8333681880216</v>
+        <v>96.12326613555373</v>
       </c>
       <c r="S15" t="n">
-        <v>182.0514410751984</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T15" t="n">
-        <v>212.9008733398524</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U15" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23665,19 +23667,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.2702145158476</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H16" t="n">
-        <v>161.9963241796108</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I16" t="n">
-        <v>151.9048422443612</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J16" t="n">
-        <v>89.79898650365654</v>
+        <v>83.39313745375298</v>
       </c>
       <c r="K16" t="n">
-        <v>17.00668871668184</v>
+        <v>6.479910928618636</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,22 +23694,22 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>6.404274245706759</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.16342279524457</v>
+        <v>83.57640008743157</v>
       </c>
       <c r="R16" t="n">
-        <v>184.0703993891455</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S16" t="n">
-        <v>227.9345506528043</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T16" t="n">
-        <v>221.9218912383841</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23744,13 +23746,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>417.8783123837688</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H17" t="n">
-        <v>337.191226455099</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I17" t="n">
-        <v>204.0047442482169</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>134.5867032943157</v>
+        <v>121.8984057757385</v>
       </c>
       <c r="S17" t="n">
-        <v>205.6441716172273</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T17" t="n">
-        <v>218.2640917157734</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23823,16 +23825,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H18" t="n">
-        <v>120.7755129590769</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I18" t="n">
-        <v>89.68126172020311</v>
+        <v>85.96027407454947</v>
       </c>
       <c r="J18" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>102.8333681880216</v>
+        <v>96.12326613555375</v>
       </c>
       <c r="S18" t="n">
-        <v>182.0514410751984</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T18" t="n">
-        <v>212.9008733398524</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -23902,19 +23904,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.2702145158476</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H19" t="n">
-        <v>161.9963241796108</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I19" t="n">
-        <v>151.9048422443612</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J19" t="n">
-        <v>89.79898650365654</v>
+        <v>83.39313745375298</v>
       </c>
       <c r="K19" t="n">
-        <v>17.00668871668184</v>
+        <v>6.479910928618636</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23929,22 +23931,22 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>6.404274245706759</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>91.16342279524457</v>
+        <v>83.57640008743158</v>
       </c>
       <c r="R19" t="n">
-        <v>184.0703993891455</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S19" t="n">
-        <v>227.9345506528043</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T19" t="n">
-        <v>221.9218912383841</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23981,13 +23983,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>417.8783123837688</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H20" t="n">
-        <v>337.191226455099</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I20" t="n">
-        <v>204.0047442482169</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>134.5867032943157</v>
+        <v>121.8984057757385</v>
       </c>
       <c r="S20" t="n">
-        <v>205.6441716172273</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T20" t="n">
-        <v>218.2640917157734</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24060,16 +24062,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H21" t="n">
-        <v>120.7755129590769</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I21" t="n">
-        <v>89.68126172020311</v>
+        <v>85.96027407454947</v>
       </c>
       <c r="J21" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>102.8333681880216</v>
+        <v>96.12326613555373</v>
       </c>
       <c r="S21" t="n">
-        <v>182.0514410751984</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T21" t="n">
-        <v>212.9008733398524</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24139,19 +24141,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.2702145158476</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H22" t="n">
-        <v>161.9963241796108</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I22" t="n">
-        <v>151.9048422443612</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J22" t="n">
-        <v>89.79898650365654</v>
+        <v>83.39313745375298</v>
       </c>
       <c r="K22" t="n">
-        <v>17.00668871668184</v>
+        <v>6.479910928618636</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24166,22 +24168,22 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>6.404274245706759</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>91.16342279524457</v>
+        <v>83.57640008743157</v>
       </c>
       <c r="R22" t="n">
-        <v>184.0703993891455</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S22" t="n">
-        <v>227.9345506528043</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T22" t="n">
-        <v>221.9218912383841</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24218,13 +24220,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>417.8783123837688</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H23" t="n">
-        <v>337.191226455099</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I23" t="n">
-        <v>204.0047442482169</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>134.5867032943157</v>
+        <v>121.8984057757385</v>
       </c>
       <c r="S23" t="n">
-        <v>205.6441716172273</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T23" t="n">
-        <v>218.2640917157734</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24297,16 +24299,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H24" t="n">
-        <v>120.7755129590769</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I24" t="n">
-        <v>89.68126172020311</v>
+        <v>85.96027407454947</v>
       </c>
       <c r="J24" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>102.8333681880216</v>
+        <v>96.12326613555375</v>
       </c>
       <c r="S24" t="n">
-        <v>182.0514410751984</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T24" t="n">
-        <v>212.9008733398524</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -24376,19 +24378,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.2702145158476</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H25" t="n">
-        <v>161.9963241796108</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I25" t="n">
-        <v>151.9048422443612</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J25" t="n">
-        <v>89.79898650365654</v>
+        <v>83.39313745375298</v>
       </c>
       <c r="K25" t="n">
-        <v>17.00668871668184</v>
+        <v>6.479910928618636</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24403,22 +24405,22 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>6.404274245706759</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>91.16342279524457</v>
+        <v>83.57640008743158</v>
       </c>
       <c r="R25" t="n">
-        <v>184.0703993891455</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S25" t="n">
-        <v>227.9345506528043</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T25" t="n">
-        <v>221.9218912383841</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24455,13 +24457,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>417.8783123837688</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H26" t="n">
-        <v>337.191226455099</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I26" t="n">
-        <v>204.0047442482169</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>134.5867032943157</v>
+        <v>121.8984057757385</v>
       </c>
       <c r="S26" t="n">
-        <v>205.6441716172273</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T26" t="n">
-        <v>218.2640917157734</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24534,16 +24536,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H27" t="n">
-        <v>120.7755129590769</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I27" t="n">
-        <v>89.68126172020311</v>
+        <v>85.96027407454947</v>
       </c>
       <c r="J27" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>102.8333681880216</v>
+        <v>96.12326613555375</v>
       </c>
       <c r="S27" t="n">
-        <v>182.0514410751984</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T27" t="n">
-        <v>212.9008733398524</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24613,19 +24615,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.2702145158476</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H28" t="n">
-        <v>161.9963241796108</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I28" t="n">
-        <v>151.9048422443612</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J28" t="n">
-        <v>89.79898650365654</v>
+        <v>83.39313745375298</v>
       </c>
       <c r="K28" t="n">
-        <v>17.00668871668184</v>
+        <v>6.479910928618636</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24640,22 +24642,22 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>6.404274245706759</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>91.16342279524457</v>
+        <v>83.57640008743158</v>
       </c>
       <c r="R28" t="n">
-        <v>184.0703993891455</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S28" t="n">
-        <v>227.9345506528043</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T28" t="n">
-        <v>221.9218912383841</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24692,13 +24694,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>417.8783123837688</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H29" t="n">
-        <v>337.191226455099</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I29" t="n">
-        <v>204.0047442482169</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>134.5867032943157</v>
+        <v>121.8984057757385</v>
       </c>
       <c r="S29" t="n">
-        <v>205.6441716172273</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T29" t="n">
-        <v>218.2640917157734</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U29" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24771,16 +24773,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H30" t="n">
-        <v>120.7755129590769</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I30" t="n">
-        <v>89.68126172020311</v>
+        <v>85.96027407454947</v>
       </c>
       <c r="J30" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>102.8333681880216</v>
+        <v>96.12326613555373</v>
       </c>
       <c r="S30" t="n">
-        <v>182.0514410751984</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T30" t="n">
-        <v>212.9008733398524</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -24850,19 +24852,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.2702145158476</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H31" t="n">
-        <v>161.9963241796108</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I31" t="n">
-        <v>151.9048422443612</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J31" t="n">
-        <v>89.79898650365654</v>
+        <v>83.39313745375298</v>
       </c>
       <c r="K31" t="n">
-        <v>17.00668871668184</v>
+        <v>6.479910928618636</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24877,22 +24879,22 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>6.404274245706759</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>91.16342279524457</v>
+        <v>83.57640008743157</v>
       </c>
       <c r="R31" t="n">
-        <v>184.0703993891455</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S31" t="n">
-        <v>227.9345506528043</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T31" t="n">
-        <v>221.9218912383841</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24929,13 +24931,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>417.8783123837688</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H32" t="n">
-        <v>337.191226455099</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I32" t="n">
-        <v>204.0047442482169</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>134.5867032943157</v>
+        <v>121.8984057757385</v>
       </c>
       <c r="S32" t="n">
-        <v>205.6441716172273</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T32" t="n">
-        <v>218.2640917157734</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -25008,16 +25010,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H33" t="n">
-        <v>120.7755129590769</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I33" t="n">
-        <v>89.68126172020311</v>
+        <v>85.96027407454947</v>
       </c>
       <c r="J33" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>102.8333681880216</v>
+        <v>96.12326613555373</v>
       </c>
       <c r="S33" t="n">
-        <v>182.0514410751984</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T33" t="n">
-        <v>212.9008733398524</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25087,19 +25089,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.2702145158476</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H34" t="n">
-        <v>161.9963241796108</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I34" t="n">
-        <v>151.9048422443612</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J34" t="n">
-        <v>89.79898650365654</v>
+        <v>83.39313745375298</v>
       </c>
       <c r="K34" t="n">
-        <v>17.00668871668184</v>
+        <v>6.479910928618636</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25114,22 +25116,22 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>6.404274245706759</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>91.16342279524457</v>
+        <v>83.57640008743157</v>
       </c>
       <c r="R34" t="n">
-        <v>184.0703993891455</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S34" t="n">
-        <v>227.9345506528043</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T34" t="n">
-        <v>221.9218912383841</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25166,13 +25168,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>417.8783123837688</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H35" t="n">
-        <v>337.191226455099</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I35" t="n">
-        <v>204.0047442482169</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>134.5867032943157</v>
+        <v>121.8984057757385</v>
       </c>
       <c r="S35" t="n">
-        <v>205.6441716172273</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T35" t="n">
-        <v>218.2640917157734</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25245,16 +25247,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H36" t="n">
-        <v>120.7755129590769</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I36" t="n">
-        <v>89.68126172020311</v>
+        <v>85.96027407454947</v>
       </c>
       <c r="J36" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>102.8333681880216</v>
+        <v>96.12326613555373</v>
       </c>
       <c r="S36" t="n">
-        <v>182.0514410751984</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T36" t="n">
-        <v>212.9008733398524</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -25324,19 +25326,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.2702145158476</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H37" t="n">
-        <v>161.9963241796108</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I37" t="n">
-        <v>151.9048422443612</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J37" t="n">
-        <v>89.79898650365654</v>
+        <v>83.39313745375298</v>
       </c>
       <c r="K37" t="n">
-        <v>17.00668871668184</v>
+        <v>6.479910928618636</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25351,22 +25353,22 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>6.404274245706759</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>91.16342279524457</v>
+        <v>83.57640008743157</v>
       </c>
       <c r="R37" t="n">
-        <v>184.0703993891455</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S37" t="n">
-        <v>227.9345506528043</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T37" t="n">
-        <v>221.9218912383841</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25403,13 +25405,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>417.8783123837688</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H38" t="n">
-        <v>337.191226455099</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I38" t="n">
-        <v>204.0047442482169</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>134.5867032943157</v>
+        <v>121.8984057757385</v>
       </c>
       <c r="S38" t="n">
-        <v>205.6441716172273</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T38" t="n">
-        <v>218.2640917157734</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25482,16 +25484,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H39" t="n">
-        <v>120.7755129590769</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I39" t="n">
-        <v>89.68126172020311</v>
+        <v>85.96027407454947</v>
       </c>
       <c r="J39" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>102.8333681880216</v>
+        <v>96.12326613555375</v>
       </c>
       <c r="S39" t="n">
-        <v>182.0514410751984</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T39" t="n">
-        <v>212.9008733398524</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25561,19 +25563,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.2702145158476</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H40" t="n">
-        <v>161.9963241796108</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I40" t="n">
-        <v>151.9048422443612</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J40" t="n">
-        <v>89.79898650365654</v>
+        <v>83.39313745375298</v>
       </c>
       <c r="K40" t="n">
-        <v>17.00668871668184</v>
+        <v>6.479910928618636</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25588,22 +25590,22 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>6.404274245706759</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>91.16342279524457</v>
+        <v>83.57640008743158</v>
       </c>
       <c r="R40" t="n">
-        <v>184.0703993891455</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S40" t="n">
-        <v>227.9345506528043</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T40" t="n">
-        <v>221.9218912383841</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25640,13 +25642,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>417.8783123837688</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H41" t="n">
-        <v>337.191226455099</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I41" t="n">
-        <v>204.0047442482169</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>134.5867032943157</v>
+        <v>121.8984057757385</v>
       </c>
       <c r="S41" t="n">
-        <v>205.6441716172273</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T41" t="n">
-        <v>218.2640917157734</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25719,16 +25721,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H42" t="n">
-        <v>120.7755129590769</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I42" t="n">
-        <v>89.68126172020311</v>
+        <v>85.96027407454947</v>
       </c>
       <c r="J42" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>102.8333681880216</v>
+        <v>96.12326613555373</v>
       </c>
       <c r="S42" t="n">
-        <v>182.0514410751984</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T42" t="n">
-        <v>212.9008733398524</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25798,19 +25800,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.2702145158476</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H43" t="n">
-        <v>161.9963241796108</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I43" t="n">
-        <v>151.9048422443612</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J43" t="n">
-        <v>89.79898650365654</v>
+        <v>83.39313745375298</v>
       </c>
       <c r="K43" t="n">
-        <v>17.00668871668184</v>
+        <v>6.479910928618636</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25825,22 +25827,22 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>6.404274245706759</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>91.16342279524457</v>
+        <v>83.57640008743157</v>
       </c>
       <c r="R43" t="n">
-        <v>184.0703993891455</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S43" t="n">
-        <v>227.9345506528043</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T43" t="n">
-        <v>221.9218912383841</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25877,13 +25879,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.8783123837688</v>
+        <v>417.6451278854616</v>
       </c>
       <c r="H44" t="n">
-        <v>337.191226455099</v>
+        <v>334.8031257118105</v>
       </c>
       <c r="I44" t="n">
-        <v>204.0047442482169</v>
+        <v>195.0148988772292</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>134.5867032943157</v>
+        <v>119.9389275525271</v>
       </c>
       <c r="S44" t="n">
-        <v>205.6441716172273</v>
+        <v>200.3304798620524</v>
       </c>
       <c r="T44" t="n">
-        <v>218.2640917157734</v>
+        <v>217.2433265744337</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0550978864748</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25956,16 +25958,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1062690826207</v>
       </c>
       <c r="H45" t="n">
-        <v>120.7755129590769</v>
+        <v>119.5705485629778</v>
       </c>
       <c r="I45" t="n">
-        <v>89.68126172020311</v>
+        <v>85.3856347858804</v>
       </c>
       <c r="J45" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>102.8333681880216</v>
+        <v>95.08701215206337</v>
       </c>
       <c r="S45" t="n">
-        <v>182.0514410751984</v>
+        <v>179.733991385153</v>
       </c>
       <c r="T45" t="n">
-        <v>212.9008733398524</v>
+        <v>212.3979840210444</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1860737474145</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26035,19 +26037,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.2702145158476</v>
+        <v>168.1656159775701</v>
       </c>
       <c r="H46" t="n">
-        <v>161.9963241796108</v>
+        <v>161.0663480847431</v>
       </c>
       <c r="I46" t="n">
-        <v>151.9048422443612</v>
+        <v>148.7592789296147</v>
       </c>
       <c r="J46" t="n">
-        <v>89.79898650365654</v>
+        <v>82.40386984743405</v>
       </c>
       <c r="K46" t="n">
-        <v>17.00668871668184</v>
+        <v>4.854240360436052</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26062,22 +26064,22 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>6.404274245706759</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>91.16342279524457</v>
+        <v>82.40472155820389</v>
       </c>
       <c r="R46" t="n">
-        <v>184.0703993891455</v>
+        <v>179.367268749866</v>
       </c>
       <c r="S46" t="n">
-        <v>227.9345506528043</v>
+        <v>226.1116833993675</v>
       </c>
       <c r="T46" t="n">
-        <v>221.9218912383841</v>
+        <v>221.4749702111983</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6273664804066</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>397649.3403697896</v>
+        <v>367570.3313343349</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>400882.8914547577</v>
+        <v>377142.0702781233</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>421930.8267488972</v>
+        <v>397649.3403697896</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>425798.4085989434</v>
+        <v>426467.2955164287</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>425798.4085989434</v>
+        <v>426467.2955164287</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>425798.4085989434</v>
+        <v>426467.2955164287</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>425798.4085989434</v>
+        <v>426467.2955164287</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>425798.4085989434</v>
+        <v>426467.2955164287</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>425798.4085989434</v>
+        <v>426467.2955164287</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>425798.4085989434</v>
+        <v>426467.2955164287</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>425798.4085989434</v>
+        <v>426467.2955164287</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>425798.4085989434</v>
+        <v>426467.2955164287</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>425798.4085989434</v>
+        <v>426467.2955164287</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>425798.4085989434</v>
+        <v>426467.2955164287</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>425798.4085989434</v>
+        <v>426602.2944135904</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74035.70591258173</v>
+        <v>66492.91400965815</v>
       </c>
       <c r="C2" t="n">
-        <v>74933.73104571656</v>
+        <v>68782.34939044419</v>
       </c>
       <c r="D2" t="n">
-        <v>82622.16948907397</v>
+        <v>74035.70591258175</v>
       </c>
       <c r="E2" t="n">
-        <v>84560.85108676576</v>
+        <v>85756.49049406018</v>
       </c>
       <c r="F2" t="n">
-        <v>84560.85108676576</v>
+        <v>85756.49049406018</v>
       </c>
       <c r="G2" t="n">
-        <v>84560.85108676576</v>
+        <v>85756.49049406018</v>
       </c>
       <c r="H2" t="n">
-        <v>84560.85108676576</v>
+        <v>85756.49049406018</v>
       </c>
       <c r="I2" t="n">
-        <v>84560.85108676576</v>
+        <v>85756.4904940602</v>
       </c>
       <c r="J2" t="n">
-        <v>84560.85108676576</v>
+        <v>85756.4904940602</v>
       </c>
       <c r="K2" t="n">
-        <v>84560.85108676573</v>
+        <v>85756.49049406018</v>
       </c>
       <c r="L2" t="n">
-        <v>84560.85108676576</v>
+        <v>85756.49049406017</v>
       </c>
       <c r="M2" t="n">
-        <v>84560.85108676576</v>
+        <v>85756.49049406018</v>
       </c>
       <c r="N2" t="n">
-        <v>84560.85108676576</v>
+        <v>85756.49049406018</v>
       </c>
       <c r="O2" t="n">
-        <v>84560.85108676576</v>
+        <v>85756.49049406017</v>
       </c>
       <c r="P2" t="n">
-        <v>84560.85108676576</v>
+        <v>85926.24727358876</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110166.5695889891</v>
+        <v>25807.49035540246</v>
       </c>
       <c r="C3" t="n">
-        <v>11793.3703858071</v>
+        <v>21269.01109069894</v>
       </c>
       <c r="D3" t="n">
-        <v>136301.6247150943</v>
+        <v>54971.05239346653</v>
       </c>
       <c r="E3" t="n">
-        <v>42986.12295422736</v>
+        <v>221622.9884865199</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5164.510654100926</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>46187.91362098721</v>
+      </c>
+      <c r="C4" t="n">
+        <v>44694.04822430953</v>
+      </c>
+      <c r="D4" t="n">
         <v>39810.09512564442</v>
       </c>
-      <c r="C4" t="n">
-        <v>38703.19140046074</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22590.34088503965</v>
-      </c>
       <c r="E4" t="n">
-        <v>17087.62834624219</v>
+        <v>11977.59146180444</v>
       </c>
       <c r="F4" t="n">
-        <v>17087.62834624219</v>
+        <v>11977.59146180444</v>
       </c>
       <c r="G4" t="n">
-        <v>17087.62834624219</v>
+        <v>11977.59146180444</v>
       </c>
       <c r="H4" t="n">
-        <v>17087.62834624219</v>
+        <v>11977.59146180444</v>
       </c>
       <c r="I4" t="n">
-        <v>17087.62834624219</v>
+        <v>11977.59146180444</v>
       </c>
       <c r="J4" t="n">
-        <v>17087.62834624219</v>
+        <v>11977.59146180444</v>
       </c>
       <c r="K4" t="n">
-        <v>17087.62834624219</v>
+        <v>11977.59146180444</v>
       </c>
       <c r="L4" t="n">
-        <v>17087.62834624219</v>
+        <v>11977.59146180444</v>
       </c>
       <c r="M4" t="n">
-        <v>17087.62834624219</v>
+        <v>11977.59146180444</v>
       </c>
       <c r="N4" t="n">
-        <v>17087.62834624219</v>
+        <v>11977.59146180444</v>
       </c>
       <c r="O4" t="n">
-        <v>17087.62834624219</v>
+        <v>11977.59146180444</v>
       </c>
       <c r="P4" t="n">
-        <v>17087.62834624219</v>
+        <v>11292.09925791138</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>34211.44775812258</v>
+      </c>
+      <c r="C5" t="n">
+        <v>34720.63227756931</v>
+      </c>
+      <c r="D5" t="n">
         <v>36119.91923712109</v>
       </c>
-      <c r="C5" t="n">
-        <v>36402.25496053328</v>
-      </c>
-      <c r="D5" t="n">
-        <v>39871.80989399894</v>
-      </c>
       <c r="E5" t="n">
-        <v>7410.620126973125</v>
+        <v>8505.965127173942</v>
       </c>
       <c r="F5" t="n">
-        <v>7410.620126973125</v>
+        <v>8505.965127173942</v>
       </c>
       <c r="G5" t="n">
-        <v>7410.620126973125</v>
+        <v>8505.965127173942</v>
       </c>
       <c r="H5" t="n">
-        <v>7410.620126973125</v>
+        <v>8505.965127173942</v>
       </c>
       <c r="I5" t="n">
-        <v>7410.620126973125</v>
+        <v>8505.965127173942</v>
       </c>
       <c r="J5" t="n">
-        <v>7410.620126973125</v>
+        <v>8505.965127173942</v>
       </c>
       <c r="K5" t="n">
-        <v>7410.620126973125</v>
+        <v>8505.965127173942</v>
       </c>
       <c r="L5" t="n">
-        <v>7410.620126973125</v>
+        <v>8505.965127173942</v>
       </c>
       <c r="M5" t="n">
-        <v>7410.620126973125</v>
+        <v>8505.965127173942</v>
       </c>
       <c r="N5" t="n">
-        <v>7410.620126973125</v>
+        <v>8505.965127173942</v>
       </c>
       <c r="O5" t="n">
-        <v>7410.620126973125</v>
+        <v>8505.965127173942</v>
       </c>
       <c r="P5" t="n">
-        <v>7410.620126973125</v>
+        <v>8675.121365168401</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-112060.8780391729</v>
+        <v>-39713.9377248541</v>
       </c>
       <c r="C6" t="n">
-        <v>-11965.08570108456</v>
+        <v>-31901.3422021336</v>
       </c>
       <c r="D6" t="n">
-        <v>-116141.606005059</v>
+        <v>-56865.36084365028</v>
       </c>
       <c r="E6" t="n">
-        <v>17076.47965932308</v>
+        <v>-156350.0545814381</v>
       </c>
       <c r="F6" t="n">
-        <v>60062.60261355045</v>
+        <v>65272.93390508181</v>
       </c>
       <c r="G6" t="n">
-        <v>60062.60261355045</v>
+        <v>65272.93390508181</v>
       </c>
       <c r="H6" t="n">
-        <v>60062.60261355045</v>
+        <v>65272.93390508181</v>
       </c>
       <c r="I6" t="n">
-        <v>60062.60261355045</v>
+        <v>65272.93390508182</v>
       </c>
       <c r="J6" t="n">
-        <v>60062.60261355045</v>
+        <v>65272.93390508182</v>
       </c>
       <c r="K6" t="n">
-        <v>60062.60261355042</v>
+        <v>65272.93390508181</v>
       </c>
       <c r="L6" t="n">
-        <v>60062.60261355045</v>
+        <v>65272.93390508179</v>
       </c>
       <c r="M6" t="n">
-        <v>60062.60261355045</v>
+        <v>65272.93390508181</v>
       </c>
       <c r="N6" t="n">
-        <v>60062.60261355045</v>
+        <v>65272.93390508181</v>
       </c>
       <c r="O6" t="n">
-        <v>60062.60261355045</v>
+        <v>65272.93390508179</v>
       </c>
       <c r="P6" t="n">
-        <v>60062.60261355045</v>
+        <v>60794.51599640804</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>26.78200725332938</v>
+      </c>
+      <c r="C3" t="n">
+        <v>50.1390953013448</v>
+      </c>
+      <c r="D3" t="n">
         <v>114.3265705101416</v>
       </c>
-      <c r="C3" t="n">
-        <v>127.2777504831783</v>
-      </c>
-      <c r="D3" t="n">
-        <v>286.431646513713</v>
-      </c>
       <c r="E3" t="n">
-        <v>339.9367030721617</v>
+        <v>390.181886567612</v>
       </c>
       <c r="F3" t="n">
-        <v>339.9367030721617</v>
+        <v>390.181886567612</v>
       </c>
       <c r="G3" t="n">
-        <v>339.9367030721617</v>
+        <v>390.181886567612</v>
       </c>
       <c r="H3" t="n">
-        <v>339.9367030721617</v>
+        <v>390.181886567612</v>
       </c>
       <c r="I3" t="n">
-        <v>339.9367030721617</v>
+        <v>390.181886567612</v>
       </c>
       <c r="J3" t="n">
-        <v>339.9367030721617</v>
+        <v>390.181886567612</v>
       </c>
       <c r="K3" t="n">
-        <v>339.9367030721617</v>
+        <v>390.181886567612</v>
       </c>
       <c r="L3" t="n">
-        <v>339.9367030721617</v>
+        <v>390.181886567612</v>
       </c>
       <c r="M3" t="n">
-        <v>339.9367030721617</v>
+        <v>390.181886567612</v>
       </c>
       <c r="N3" t="n">
-        <v>339.9367030721617</v>
+        <v>390.181886567612</v>
       </c>
       <c r="O3" t="n">
-        <v>339.9367030721617</v>
+        <v>390.181886567612</v>
       </c>
       <c r="P3" t="n">
-        <v>339.9367030721617</v>
+        <v>397.9413470260735</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114.3265705101416</v>
+        <v>26.78200725332938</v>
       </c>
       <c r="C3" t="n">
-        <v>12.95117997303663</v>
+        <v>23.35708804801542</v>
       </c>
       <c r="D3" t="n">
-        <v>159.1538960305347</v>
+        <v>64.18747520879683</v>
       </c>
       <c r="E3" t="n">
-        <v>53.5050565584487</v>
+        <v>275.8553160574704</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>7.759460458461433</v>
       </c>
     </row>
     <row r="4">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.459604303558358</v>
+        <v>0.1076663608174045</v>
       </c>
       <c r="H2" t="n">
-        <v>4.706922573817035</v>
+        <v>1.102638117721244</v>
       </c>
       <c r="I2" t="n">
-        <v>17.71889491293361</v>
+        <v>4.150807375412989</v>
       </c>
       <c r="J2" t="n">
-        <v>39.00834075913622</v>
+        <v>9.138047791426191</v>
       </c>
       <c r="K2" t="n">
-        <v>58.46339092876153</v>
+        <v>13.69556484482692</v>
       </c>
       <c r="L2" t="n">
-        <v>72.52900613378564</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M2" t="n">
-        <v>80.70249416719159</v>
+        <v>18.90527087887908</v>
       </c>
       <c r="N2" t="n">
-        <v>82.00834489467678</v>
+        <v>19.21117792655154</v>
       </c>
       <c r="O2" t="n">
-        <v>77.43815460116835</v>
+        <v>18.14057055117347</v>
       </c>
       <c r="P2" t="n">
-        <v>66.09167335707137</v>
+        <v>15.48255726849379</v>
       </c>
       <c r="Q2" t="n">
-        <v>49.63209423588766</v>
+        <v>11.62675572172049</v>
       </c>
       <c r="R2" t="n">
-        <v>28.87061883339773</v>
+        <v>6.76319703769629</v>
       </c>
       <c r="S2" t="n">
-        <v>10.47323306733609</v>
+        <v>2.453447197126607</v>
       </c>
       <c r="T2" t="n">
-        <v>2.011917838826713</v>
+        <v>0.4713094944781883</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.008613308865392355</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.05760658163923679</v>
       </c>
       <c r="H3" t="n">
-        <v>2.374972719465395</v>
+        <v>0.55635830162105</v>
       </c>
       <c r="I3" t="n">
-        <v>8.466637533062377</v>
+        <v>1.983384499421091</v>
       </c>
       <c r="J3" t="n">
-        <v>23.23310052225435</v>
+        <v>5.442558662678946</v>
       </c>
       <c r="K3" t="n">
-        <v>39.70906930633853</v>
+        <v>9.30219963250781</v>
       </c>
       <c r="L3" t="n">
-        <v>53.3937440858921</v>
+        <v>12.50795536864218</v>
       </c>
       <c r="M3" t="n">
-        <v>62.30798092802718</v>
+        <v>14.59619395306451</v>
       </c>
       <c r="N3" t="n">
-        <v>63.95708778000839</v>
+        <v>14.9825117746715</v>
       </c>
       <c r="O3" t="n">
-        <v>58.50824028739296</v>
+        <v>13.70607120255999</v>
       </c>
       <c r="P3" t="n">
-        <v>46.95802100821271</v>
+        <v>11.00033048863637</v>
       </c>
       <c r="Q3" t="n">
-        <v>31.39019347289776</v>
+        <v>7.353429614159418</v>
       </c>
       <c r="R3" t="n">
-        <v>15.26798992586383</v>
+        <v>3.576661270548404</v>
       </c>
       <c r="S3" t="n">
-        <v>4.56767005764575</v>
+        <v>1.070016987904244</v>
       </c>
       <c r="T3" t="n">
-        <v>0.991189795271888</v>
+        <v>0.2321949496774499</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.003789906686791895</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.04829542291583986</v>
       </c>
       <c r="H4" t="n">
-        <v>1.832973540310141</v>
+        <v>0.4293902146517402</v>
       </c>
       <c r="I4" t="n">
-        <v>6.199873692582764</v>
+        <v>1.452375081869075</v>
       </c>
       <c r="J4" t="n">
-        <v>14.57570063700609</v>
+        <v>3.414486400149878</v>
       </c>
       <c r="K4" t="n">
-        <v>23.95235362491163</v>
+        <v>5.611050044222121</v>
       </c>
       <c r="L4" t="n">
-        <v>30.65076613316158</v>
+        <v>7.180212239687683</v>
       </c>
       <c r="M4" t="n">
-        <v>32.31693533289134</v>
+        <v>7.570527066707514</v>
       </c>
       <c r="N4" t="n">
-        <v>31.5485108425773</v>
+        <v>7.390516854021208</v>
       </c>
       <c r="O4" t="n">
-        <v>29.14015603756857</v>
+        <v>6.826338504504349</v>
       </c>
       <c r="P4" t="n">
-        <v>24.93443760765448</v>
+        <v>5.841111877021211</v>
       </c>
       <c r="Q4" t="n">
-        <v>17.26331214703139</v>
+        <v>4.044083095252736</v>
       </c>
       <c r="R4" t="n">
-        <v>9.269823241691153</v>
+        <v>2.171537834015854</v>
       </c>
       <c r="S4" t="n">
-        <v>3.592853043736744</v>
+        <v>0.8416575066333181</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8808768547502713</v>
+        <v>0.2063531706404066</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.00263429579540945</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5116693486760931</v>
+        <v>0.2015642022164613</v>
       </c>
       <c r="H5" t="n">
-        <v>5.240133717129041</v>
+        <v>2.064269385949336</v>
       </c>
       <c r="I5" t="n">
-        <v>19.7261325648351</v>
+        <v>7.770803905950134</v>
       </c>
       <c r="J5" t="n">
-        <v>43.4272963821976</v>
+        <v>17.1075097078694</v>
       </c>
       <c r="K5" t="n">
-        <v>65.08625991165663</v>
+        <v>25.63972238769222</v>
       </c>
       <c r="L5" t="n">
-        <v>80.74526074120263</v>
+        <v>31.80834284127425</v>
       </c>
       <c r="M5" t="n">
-        <v>89.84466052072111</v>
+        <v>35.39291022244124</v>
       </c>
       <c r="N5" t="n">
-        <v>91.29844105764707</v>
+        <v>35.96560451198877</v>
       </c>
       <c r="O5" t="n">
-        <v>86.21052897174916</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P5" t="n">
-        <v>73.5786919263081</v>
+        <v>28.98518423397994</v>
       </c>
       <c r="Q5" t="n">
-        <v>55.25453337684549</v>
+        <v>21.76666624210291</v>
       </c>
       <c r="R5" t="n">
-        <v>32.14114972377467</v>
+        <v>12.6615073174798</v>
       </c>
       <c r="S5" t="n">
-        <v>11.65966528295648</v>
+        <v>4.593144258007618</v>
       </c>
       <c r="T5" t="n">
-        <v>2.239832573829599</v>
+        <v>0.8823472952025601</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04093354789408744</v>
+        <v>0.01612513617731691</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2737672368883458</v>
+        <v>0.1078463559311945</v>
       </c>
       <c r="H6" t="n">
-        <v>2.64401515626376</v>
+        <v>1.041568753335484</v>
       </c>
       <c r="I6" t="n">
-        <v>9.42575793672594</v>
+        <v>3.713131114297705</v>
       </c>
       <c r="J6" t="n">
-        <v>25.86500021847305</v>
+        <v>10.18911558383272</v>
       </c>
       <c r="K6" t="n">
-        <v>44.20740508999221</v>
+        <v>17.41482143122275</v>
       </c>
       <c r="L6" t="n">
-        <v>59.44231167612963</v>
+        <v>23.41637653672712</v>
       </c>
       <c r="M6" t="n">
-        <v>69.36637401333215</v>
+        <v>27.32580693923291</v>
       </c>
       <c r="N6" t="n">
-        <v>71.20229552737726</v>
+        <v>28.04903973843816</v>
       </c>
       <c r="O6" t="n">
-        <v>65.13618991000916</v>
+        <v>25.65939153596275</v>
       </c>
       <c r="P6" t="n">
-        <v>52.27753491072279</v>
+        <v>20.59392387952783</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.94614764209831</v>
+        <v>13.76649273255037</v>
       </c>
       <c r="R6" t="n">
-        <v>16.99758335697993</v>
+        <v>6.695934274394691</v>
       </c>
       <c r="S6" t="n">
-        <v>5.085106351851506</v>
+        <v>2.003198760388633</v>
       </c>
       <c r="T6" t="n">
-        <v>1.103474082019253</v>
+        <v>0.4346964960559986</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01801100242686486</v>
+        <v>0.007095154995473324</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2295172549696657</v>
+        <v>0.09041476201881848</v>
       </c>
       <c r="H7" t="n">
-        <v>2.040617048730302</v>
+        <v>0.8038694295854958</v>
       </c>
       <c r="I7" t="n">
-        <v>6.902209813087768</v>
+        <v>2.719018479620469</v>
       </c>
       <c r="J7" t="n">
-        <v>16.22686992635536</v>
+        <v>6.392323674730466</v>
       </c>
       <c r="K7" t="n">
-        <v>26.6657319864757</v>
+        <v>10.50455144182273</v>
       </c>
       <c r="L7" t="n">
-        <v>34.12295625249012</v>
+        <v>13.44220925505234</v>
       </c>
       <c r="M7" t="n">
-        <v>35.97787297674495</v>
+        <v>14.17292492264079</v>
       </c>
       <c r="N7" t="n">
-        <v>35.12239957185805</v>
+        <v>13.8359244460252</v>
       </c>
       <c r="O7" t="n">
-        <v>32.4412207297124</v>
+        <v>12.779715635169</v>
       </c>
       <c r="P7" t="n">
-        <v>27.75906872833119</v>
+        <v>10.9352544899851</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.21894032295992</v>
+        <v>7.571003390503064</v>
       </c>
       <c r="R7" t="n">
-        <v>10.31993039163606</v>
+        <v>4.065376481318873</v>
       </c>
       <c r="S7" t="n">
-        <v>3.999859797971354</v>
+        <v>1.575682716273409</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9806646348703896</v>
+        <v>0.3863176195349516</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01251912299834542</v>
+        <v>0.004931714291935559</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.151484006085277</v>
+        <v>0.459604303558358</v>
       </c>
       <c r="H8" t="n">
-        <v>11.79263557732085</v>
+        <v>4.706922573817035</v>
       </c>
       <c r="I8" t="n">
-        <v>44.3925871446027</v>
+        <v>17.71889491293361</v>
       </c>
       <c r="J8" t="n">
-        <v>97.7307656614804</v>
+        <v>39.00834075913622</v>
       </c>
       <c r="K8" t="n">
-        <v>146.4730836390702</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L8" t="n">
-        <v>181.7128122903026</v>
+        <v>72.52900613378564</v>
       </c>
       <c r="M8" t="n">
-        <v>202.1905159835216</v>
+        <v>80.70249416719157</v>
       </c>
       <c r="N8" t="n">
-        <v>205.4621699158114</v>
+        <v>82.00834489467677</v>
       </c>
       <c r="O8" t="n">
-        <v>194.0121008303009</v>
+        <v>77.43815460116835</v>
       </c>
       <c r="P8" t="n">
-        <v>165.5848394300706</v>
+        <v>66.09167335707137</v>
       </c>
       <c r="Q8" t="n">
-        <v>124.3473184621416</v>
+        <v>49.63209423588766</v>
       </c>
       <c r="R8" t="n">
-        <v>72.33190719725437</v>
+        <v>28.87061883339773</v>
       </c>
       <c r="S8" t="n">
-        <v>26.23944178866828</v>
+        <v>10.47323306733609</v>
       </c>
       <c r="T8" t="n">
-        <v>5.040621236638304</v>
+        <v>2.011917838826713</v>
       </c>
       <c r="U8" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.03676834428466863</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6160982585389297</v>
+        <v>0.2459099818520028</v>
       </c>
       <c r="H9" t="n">
-        <v>5.950212128520717</v>
+        <v>2.374972719465396</v>
       </c>
       <c r="I9" t="n">
-        <v>21.21215495408158</v>
+        <v>8.466637533062377</v>
       </c>
       <c r="J9" t="n">
-        <v>58.20777450520653</v>
+        <v>23.23310052225435</v>
       </c>
       <c r="K9" t="n">
-        <v>99.48635782731482</v>
+        <v>39.70906930633854</v>
       </c>
       <c r="L9" t="n">
-        <v>133.7716854779374</v>
+        <v>53.3937440858921</v>
       </c>
       <c r="M9" t="n">
-        <v>156.1052473499736</v>
+        <v>62.30798092802719</v>
       </c>
       <c r="N9" t="n">
-        <v>160.2368887416667</v>
+        <v>63.95708778000839</v>
       </c>
       <c r="O9" t="n">
-        <v>146.5854483814093</v>
+        <v>58.50824028739296</v>
       </c>
       <c r="P9" t="n">
-        <v>117.6477455274909</v>
+        <v>46.9580210082127</v>
       </c>
       <c r="Q9" t="n">
-        <v>78.6444022654255</v>
+        <v>31.39019347289776</v>
       </c>
       <c r="R9" t="n">
-        <v>38.25213573630304</v>
+        <v>15.26798992586383</v>
       </c>
       <c r="S9" t="n">
-        <v>11.44375493382617</v>
+        <v>4.56767005764575</v>
       </c>
       <c r="T9" t="n">
-        <v>2.483308331567001</v>
+        <v>0.9911897952718879</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.01617828827973703</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.2061626681330423</v>
       </c>
       <c r="H10" t="n">
-        <v>4.59229754574445</v>
+        <v>1.832973540310141</v>
       </c>
       <c r="I10" t="n">
-        <v>15.53304732241578</v>
+        <v>6.199873692582764</v>
       </c>
       <c r="J10" t="n">
-        <v>36.51768713011714</v>
+        <v>14.57570063700609</v>
       </c>
       <c r="K10" t="n">
-        <v>60.00977774500411</v>
+        <v>23.95235362491163</v>
       </c>
       <c r="L10" t="n">
-        <v>76.79185487025021</v>
+        <v>30.65076613316158</v>
       </c>
       <c r="M10" t="n">
-        <v>80.96624394813036</v>
+        <v>32.31693533289134</v>
       </c>
       <c r="N10" t="n">
-        <v>79.04104763549726</v>
+        <v>31.5485108425773</v>
       </c>
       <c r="O10" t="n">
-        <v>73.00720065565919</v>
+        <v>29.14015603756857</v>
       </c>
       <c r="P10" t="n">
-        <v>62.47027254456452</v>
+        <v>24.93443760765448</v>
       </c>
       <c r="Q10" t="n">
-        <v>43.25117862357066</v>
+        <v>17.26331214703139</v>
       </c>
       <c r="R10" t="n">
-        <v>23.22444137142334</v>
+        <v>9.269823241691153</v>
       </c>
       <c r="S10" t="n">
-        <v>9.001466661750614</v>
+        <v>3.592853043736745</v>
       </c>
       <c r="T10" t="n">
-        <v>2.206932358384345</v>
+        <v>0.8808768547502713</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.0112452364436205</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.36657971084286</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H11" t="n">
-        <v>13.99548446366944</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I11" t="n">
-        <v>52.68506430226941</v>
+        <v>60.47231027898639</v>
       </c>
       <c r="J11" t="n">
-        <v>115.9867447331493</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K11" t="n">
-        <v>173.8340638931276</v>
+        <v>199.5280367978889</v>
       </c>
       <c r="L11" t="n">
-        <v>215.6565277188348</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M11" t="n">
-        <v>239.9594396515365</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N11" t="n">
-        <v>243.8422342549688</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O11" t="n">
-        <v>230.2533072552751</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P11" t="n">
-        <v>196.515870643842</v>
+        <v>225.5623839830384</v>
       </c>
       <c r="Q11" t="n">
-        <v>147.575234749282</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R11" t="n">
-        <v>85.84341276123287</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S11" t="n">
-        <v>31.1409351608317</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T11" t="n">
-        <v>5.982202684214623</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.8392591522397692</v>
       </c>
       <c r="H12" t="n">
-        <v>7.061703963819812</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I12" t="n">
-        <v>25.17455772751386</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J12" t="n">
-        <v>69.08091057431542</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K12" t="n">
-        <v>118.0702792170545</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L12" t="n">
-        <v>158.7600611847865</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M12" t="n">
         <v>173.4035213848624</v>
@@ -31856,22 +31858,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P12" t="n">
-        <v>139.624190361847</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q12" t="n">
-        <v>93.33507364351127</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R12" t="n">
-        <v>45.39758461027851</v>
+        <v>52.10768666274639</v>
       </c>
       <c r="S12" t="n">
-        <v>13.58143337274154</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T12" t="n">
-        <v>2.947187076635061</v>
+        <v>3.382803337317314</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05521441791051115</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.7036066806956937</v>
       </c>
       <c r="H13" t="n">
-        <v>5.450132714829087</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I13" t="n">
-        <v>18.43460022561821</v>
+        <v>21.1593718158305</v>
       </c>
       <c r="J13" t="n">
-        <v>43.33914327528198</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K13" t="n">
-        <v>71.21952566003647</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L13" t="n">
-        <v>91.13647282036283</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M13" t="n">
-        <v>96.09063231267676</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N13" t="n">
-        <v>93.80581184940493</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O13" t="n">
-        <v>86.6448501535405</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P13" t="n">
-        <v>74.13963766675469</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q13" t="n">
-        <v>51.33044216389641</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R13" t="n">
-        <v>27.56273661303133</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S13" t="n">
-        <v>10.68292884900547</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T13" t="n">
-        <v>2.619184433506819</v>
+        <v>3.006319453881599</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.36657971084286</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H14" t="n">
-        <v>13.99548446366944</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I14" t="n">
-        <v>52.68506430226941</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J14" t="n">
-        <v>115.9867447331493</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K14" t="n">
-        <v>173.8340638931276</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L14" t="n">
-        <v>215.6565277188348</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M14" t="n">
-        <v>239.9594396515365</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N14" t="n">
-        <v>243.8422342549688</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O14" t="n">
-        <v>230.2533072552751</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P14" t="n">
-        <v>196.515870643842</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q14" t="n">
-        <v>147.575234749282</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R14" t="n">
-        <v>85.84341276123287</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S14" t="n">
-        <v>31.1409351608317</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T14" t="n">
-        <v>5.982202684214623</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H15" t="n">
-        <v>7.061703963819812</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I15" t="n">
-        <v>25.17455772751386</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J15" t="n">
-        <v>69.08091057431542</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K15" t="n">
-        <v>118.0702792170545</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L15" t="n">
-        <v>158.7600611847865</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M15" t="n">
         <v>173.4035213848624</v>
@@ -32093,22 +32095,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P15" t="n">
-        <v>139.624190361847</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q15" t="n">
-        <v>93.33507364351127</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R15" t="n">
-        <v>45.39758461027851</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S15" t="n">
-        <v>13.58143337274154</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T15" t="n">
-        <v>2.947187076635061</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H16" t="n">
-        <v>5.450132714829087</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I16" t="n">
-        <v>18.43460022561821</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J16" t="n">
-        <v>43.33914327528198</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K16" t="n">
-        <v>71.21952566003647</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L16" t="n">
-        <v>91.13647282036283</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M16" t="n">
-        <v>96.09063231267676</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N16" t="n">
-        <v>93.80581184940493</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O16" t="n">
-        <v>86.6448501535405</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P16" t="n">
-        <v>74.13963766675469</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.33044216389641</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R16" t="n">
-        <v>27.56273661303133</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S16" t="n">
-        <v>10.68292884900547</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T16" t="n">
-        <v>2.619184433506819</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.36657971084286</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H17" t="n">
-        <v>13.99548446366944</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I17" t="n">
-        <v>52.68506430226941</v>
+        <v>60.47231027898639</v>
       </c>
       <c r="J17" t="n">
-        <v>115.9867447331493</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K17" t="n">
-        <v>173.8340638931276</v>
+        <v>199.5280367978889</v>
       </c>
       <c r="L17" t="n">
-        <v>215.6565277188348</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M17" t="n">
-        <v>239.9594396515365</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N17" t="n">
-        <v>243.8422342549688</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O17" t="n">
-        <v>230.2533072552751</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P17" t="n">
-        <v>196.515870643842</v>
+        <v>225.5623839830384</v>
       </c>
       <c r="Q17" t="n">
-        <v>147.575234749282</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R17" t="n">
-        <v>85.84341276123287</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S17" t="n">
-        <v>31.1409351608317</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T17" t="n">
-        <v>5.982202684214623</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.8392591522397692</v>
       </c>
       <c r="H18" t="n">
-        <v>7.061703963819812</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I18" t="n">
-        <v>25.17455772751386</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J18" t="n">
-        <v>69.08091057431542</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K18" t="n">
-        <v>118.0702792170545</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L18" t="n">
-        <v>158.7600611847865</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M18" t="n">
         <v>173.4035213848624</v>
@@ -32330,22 +32332,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P18" t="n">
-        <v>139.624190361847</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q18" t="n">
-        <v>93.33507364351127</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R18" t="n">
-        <v>45.39758461027851</v>
+        <v>52.10768666274639</v>
       </c>
       <c r="S18" t="n">
-        <v>13.58143337274154</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T18" t="n">
-        <v>2.947187076635061</v>
+        <v>3.382803337317314</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05521441791051115</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.7036066806956937</v>
       </c>
       <c r="H19" t="n">
-        <v>5.450132714829087</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I19" t="n">
-        <v>18.43460022561821</v>
+        <v>21.1593718158305</v>
       </c>
       <c r="J19" t="n">
-        <v>43.33914327528198</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K19" t="n">
-        <v>71.21952566003647</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L19" t="n">
-        <v>91.13647282036283</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M19" t="n">
-        <v>96.09063231267676</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N19" t="n">
-        <v>93.80581184940493</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O19" t="n">
-        <v>86.6448501535405</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P19" t="n">
-        <v>74.13963766675469</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q19" t="n">
-        <v>51.33044216389641</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R19" t="n">
-        <v>27.56273661303133</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S19" t="n">
-        <v>10.68292884900547</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T19" t="n">
-        <v>2.619184433506819</v>
+        <v>3.006319453881599</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.36657971084286</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H20" t="n">
-        <v>13.99548446366944</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I20" t="n">
-        <v>52.68506430226941</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J20" t="n">
-        <v>115.9867447331493</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K20" t="n">
-        <v>173.8340638931276</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L20" t="n">
-        <v>215.6565277188348</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M20" t="n">
-        <v>239.9594396515365</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N20" t="n">
-        <v>243.8422342549688</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O20" t="n">
-        <v>230.2533072552751</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P20" t="n">
-        <v>196.515870643842</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q20" t="n">
-        <v>147.575234749282</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R20" t="n">
-        <v>85.84341276123287</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S20" t="n">
-        <v>31.1409351608317</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T20" t="n">
-        <v>5.982202684214623</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H21" t="n">
-        <v>7.061703963819812</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I21" t="n">
-        <v>25.17455772751386</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J21" t="n">
-        <v>69.08091057431542</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K21" t="n">
-        <v>118.0702792170545</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L21" t="n">
-        <v>158.7600611847865</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M21" t="n">
         <v>173.4035213848624</v>
@@ -32567,22 +32569,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P21" t="n">
-        <v>139.624190361847</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q21" t="n">
-        <v>93.33507364351127</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R21" t="n">
-        <v>45.39758461027851</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S21" t="n">
-        <v>13.58143337274154</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T21" t="n">
-        <v>2.947187076635061</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H22" t="n">
-        <v>5.450132714829087</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I22" t="n">
-        <v>18.43460022561821</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J22" t="n">
-        <v>43.33914327528198</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K22" t="n">
-        <v>71.21952566003647</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L22" t="n">
-        <v>91.13647282036283</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M22" t="n">
-        <v>96.09063231267676</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N22" t="n">
-        <v>93.80581184940493</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O22" t="n">
-        <v>86.6448501535405</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P22" t="n">
-        <v>74.13963766675469</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q22" t="n">
-        <v>51.33044216389641</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R22" t="n">
-        <v>27.56273661303133</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S22" t="n">
-        <v>10.68292884900547</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T22" t="n">
-        <v>2.619184433506819</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.36657971084286</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H23" t="n">
-        <v>13.99548446366944</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I23" t="n">
-        <v>52.68506430226941</v>
+        <v>60.47231027898639</v>
       </c>
       <c r="J23" t="n">
-        <v>115.9867447331493</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K23" t="n">
-        <v>173.8340638931276</v>
+        <v>199.5280367978889</v>
       </c>
       <c r="L23" t="n">
-        <v>215.6565277188348</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M23" t="n">
-        <v>239.9594396515365</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N23" t="n">
-        <v>243.8422342549688</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O23" t="n">
-        <v>230.2533072552751</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P23" t="n">
-        <v>196.515870643842</v>
+        <v>225.5623839830384</v>
       </c>
       <c r="Q23" t="n">
-        <v>147.575234749282</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R23" t="n">
-        <v>85.84341276123287</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S23" t="n">
-        <v>31.1409351608317</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T23" t="n">
-        <v>5.982202684214623</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.8392591522397692</v>
       </c>
       <c r="H24" t="n">
-        <v>7.061703963819812</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I24" t="n">
-        <v>25.17455772751386</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J24" t="n">
-        <v>69.08091057431542</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K24" t="n">
-        <v>118.0702792170545</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L24" t="n">
-        <v>158.7600611847865</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M24" t="n">
         <v>173.4035213848624</v>
@@ -32804,22 +32806,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P24" t="n">
-        <v>139.624190361847</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q24" t="n">
-        <v>93.33507364351127</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R24" t="n">
-        <v>45.39758461027851</v>
+        <v>52.10768666274639</v>
       </c>
       <c r="S24" t="n">
-        <v>13.58143337274154</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T24" t="n">
-        <v>2.947187076635061</v>
+        <v>3.382803337317314</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05521441791051115</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.7036066806956937</v>
       </c>
       <c r="H25" t="n">
-        <v>5.450132714829087</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I25" t="n">
-        <v>18.43460022561821</v>
+        <v>21.1593718158305</v>
       </c>
       <c r="J25" t="n">
-        <v>43.33914327528198</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K25" t="n">
-        <v>71.21952566003647</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L25" t="n">
-        <v>91.13647282036283</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M25" t="n">
-        <v>96.09063231267676</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N25" t="n">
-        <v>93.80581184940493</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O25" t="n">
-        <v>86.6448501535405</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P25" t="n">
-        <v>74.13963766675469</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q25" t="n">
-        <v>51.33044216389641</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R25" t="n">
-        <v>27.56273661303133</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S25" t="n">
-        <v>10.68292884900547</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T25" t="n">
-        <v>2.619184433506819</v>
+        <v>3.006319453881599</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.36657971084286</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H26" t="n">
-        <v>13.99548446366944</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I26" t="n">
-        <v>52.68506430226941</v>
+        <v>60.47231027898639</v>
       </c>
       <c r="J26" t="n">
-        <v>115.9867447331493</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K26" t="n">
-        <v>173.8340638931276</v>
+        <v>199.5280367978889</v>
       </c>
       <c r="L26" t="n">
-        <v>215.6565277188348</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M26" t="n">
-        <v>239.9594396515365</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N26" t="n">
-        <v>243.8422342549688</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O26" t="n">
-        <v>230.2533072552751</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P26" t="n">
-        <v>196.515870643842</v>
+        <v>225.5623839830384</v>
       </c>
       <c r="Q26" t="n">
-        <v>147.575234749282</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R26" t="n">
-        <v>85.84341276123287</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S26" t="n">
-        <v>31.1409351608317</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T26" t="n">
-        <v>5.982202684214623</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.8392591522397692</v>
       </c>
       <c r="H27" t="n">
-        <v>7.061703963819812</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I27" t="n">
-        <v>25.17455772751386</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J27" t="n">
-        <v>69.08091057431542</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K27" t="n">
-        <v>118.0702792170545</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L27" t="n">
-        <v>158.7600611847865</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M27" t="n">
         <v>173.4035213848624</v>
@@ -33041,22 +33043,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P27" t="n">
-        <v>139.624190361847</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q27" t="n">
-        <v>93.33507364351127</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R27" t="n">
-        <v>45.39758461027851</v>
+        <v>52.10768666274639</v>
       </c>
       <c r="S27" t="n">
-        <v>13.58143337274154</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T27" t="n">
-        <v>2.947187076635061</v>
+        <v>3.382803337317314</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05521441791051115</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.7036066806956937</v>
       </c>
       <c r="H28" t="n">
-        <v>5.450132714829087</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I28" t="n">
-        <v>18.43460022561821</v>
+        <v>21.1593718158305</v>
       </c>
       <c r="J28" t="n">
-        <v>43.33914327528198</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K28" t="n">
-        <v>71.21952566003647</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L28" t="n">
-        <v>91.13647282036283</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M28" t="n">
-        <v>96.09063231267676</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N28" t="n">
-        <v>93.80581184940493</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O28" t="n">
-        <v>86.6448501535405</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P28" t="n">
-        <v>74.13963766675469</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q28" t="n">
-        <v>51.33044216389641</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R28" t="n">
-        <v>27.56273661303133</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S28" t="n">
-        <v>10.68292884900547</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T28" t="n">
-        <v>2.619184433506819</v>
+        <v>3.006319453881599</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.36657971084286</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H29" t="n">
-        <v>13.99548446366944</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I29" t="n">
-        <v>52.68506430226941</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J29" t="n">
-        <v>115.9867447331493</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K29" t="n">
-        <v>173.8340638931276</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L29" t="n">
-        <v>215.6565277188348</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M29" t="n">
-        <v>239.9594396515365</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N29" t="n">
-        <v>243.8422342549688</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O29" t="n">
-        <v>230.2533072552751</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P29" t="n">
-        <v>196.515870643842</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q29" t="n">
-        <v>147.575234749282</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R29" t="n">
-        <v>85.84341276123287</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S29" t="n">
-        <v>31.1409351608317</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T29" t="n">
-        <v>5.982202684214623</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H30" t="n">
-        <v>7.061703963819812</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I30" t="n">
-        <v>25.17455772751386</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J30" t="n">
-        <v>69.08091057431542</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K30" t="n">
-        <v>118.0702792170545</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L30" t="n">
-        <v>158.7600611847865</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M30" t="n">
         <v>173.4035213848624</v>
@@ -33278,22 +33280,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P30" t="n">
-        <v>139.624190361847</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q30" t="n">
-        <v>93.33507364351127</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R30" t="n">
-        <v>45.39758461027851</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S30" t="n">
-        <v>13.58143337274154</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T30" t="n">
-        <v>2.947187076635061</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H31" t="n">
-        <v>5.450132714829087</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I31" t="n">
-        <v>18.43460022561821</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J31" t="n">
-        <v>43.33914327528198</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K31" t="n">
-        <v>71.21952566003647</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L31" t="n">
-        <v>91.13647282036283</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M31" t="n">
-        <v>96.09063231267676</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N31" t="n">
-        <v>93.80581184940493</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O31" t="n">
-        <v>86.6448501535405</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P31" t="n">
-        <v>74.13963766675469</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q31" t="n">
-        <v>51.33044216389641</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R31" t="n">
-        <v>27.56273661303133</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S31" t="n">
-        <v>10.68292884900547</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T31" t="n">
-        <v>2.619184433506819</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.36657971084286</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H32" t="n">
-        <v>13.99548446366944</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I32" t="n">
-        <v>52.68506430226941</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J32" t="n">
-        <v>115.9867447331493</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K32" t="n">
-        <v>173.8340638931276</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L32" t="n">
-        <v>215.6565277188348</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M32" t="n">
-        <v>239.9594396515365</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N32" t="n">
-        <v>243.8422342549688</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O32" t="n">
-        <v>230.2533072552751</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P32" t="n">
-        <v>196.515870643842</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q32" t="n">
-        <v>147.575234749282</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R32" t="n">
-        <v>85.84341276123287</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S32" t="n">
-        <v>31.1409351608317</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T32" t="n">
-        <v>5.982202684214623</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H33" t="n">
-        <v>7.061703963819812</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I33" t="n">
-        <v>25.17455772751386</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J33" t="n">
-        <v>69.08091057431542</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K33" t="n">
-        <v>118.0702792170545</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L33" t="n">
-        <v>158.7600611847865</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M33" t="n">
         <v>173.4035213848624</v>
@@ -33515,22 +33517,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P33" t="n">
-        <v>139.624190361847</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q33" t="n">
-        <v>93.33507364351127</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R33" t="n">
-        <v>45.39758461027851</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S33" t="n">
-        <v>13.58143337274154</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T33" t="n">
-        <v>2.947187076635061</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H34" t="n">
-        <v>5.450132714829087</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I34" t="n">
-        <v>18.43460022561821</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J34" t="n">
-        <v>43.33914327528198</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K34" t="n">
-        <v>71.21952566003647</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L34" t="n">
-        <v>91.13647282036283</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M34" t="n">
-        <v>96.09063231267676</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N34" t="n">
-        <v>93.80581184940493</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O34" t="n">
-        <v>86.6448501535405</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P34" t="n">
-        <v>74.13963766675469</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q34" t="n">
-        <v>51.33044216389641</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R34" t="n">
-        <v>27.56273661303133</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S34" t="n">
-        <v>10.68292884900547</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T34" t="n">
-        <v>2.619184433506819</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.36657971084286</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H35" t="n">
-        <v>13.99548446366944</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I35" t="n">
-        <v>52.68506430226941</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J35" t="n">
-        <v>115.9867447331493</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K35" t="n">
-        <v>173.8340638931276</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L35" t="n">
-        <v>215.6565277188348</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M35" t="n">
-        <v>239.9594396515365</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N35" t="n">
-        <v>243.8422342549688</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O35" t="n">
-        <v>230.2533072552751</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P35" t="n">
-        <v>196.515870643842</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q35" t="n">
-        <v>147.575234749282</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R35" t="n">
-        <v>85.84341276123287</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S35" t="n">
-        <v>31.1409351608317</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T35" t="n">
-        <v>5.982202684214623</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H36" t="n">
-        <v>7.061703963819812</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I36" t="n">
-        <v>25.17455772751386</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J36" t="n">
-        <v>69.08091057431542</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K36" t="n">
-        <v>118.0702792170545</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L36" t="n">
-        <v>158.7600611847865</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M36" t="n">
         <v>173.4035213848624</v>
@@ -33752,22 +33754,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P36" t="n">
-        <v>139.624190361847</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q36" t="n">
-        <v>93.33507364351127</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R36" t="n">
-        <v>45.39758461027851</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S36" t="n">
-        <v>13.58143337274154</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T36" t="n">
-        <v>2.947187076635061</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H37" t="n">
-        <v>5.450132714829087</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I37" t="n">
-        <v>18.43460022561821</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J37" t="n">
-        <v>43.33914327528198</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K37" t="n">
-        <v>71.21952566003647</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L37" t="n">
-        <v>91.13647282036283</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M37" t="n">
-        <v>96.09063231267676</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N37" t="n">
-        <v>93.80581184940493</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O37" t="n">
-        <v>86.6448501535405</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P37" t="n">
-        <v>74.13963766675469</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q37" t="n">
-        <v>51.33044216389641</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R37" t="n">
-        <v>27.56273661303133</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S37" t="n">
-        <v>10.68292884900547</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T37" t="n">
-        <v>2.619184433506819</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.36657971084286</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H38" t="n">
-        <v>13.99548446366944</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I38" t="n">
-        <v>52.68506430226941</v>
+        <v>60.47231027898639</v>
       </c>
       <c r="J38" t="n">
-        <v>115.9867447331493</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K38" t="n">
-        <v>173.8340638931276</v>
+        <v>199.5280367978889</v>
       </c>
       <c r="L38" t="n">
-        <v>215.6565277188348</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M38" t="n">
-        <v>239.9594396515365</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N38" t="n">
-        <v>243.8422342549688</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O38" t="n">
-        <v>230.2533072552751</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P38" t="n">
-        <v>196.515870643842</v>
+        <v>225.5623839830384</v>
       </c>
       <c r="Q38" t="n">
-        <v>147.575234749282</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R38" t="n">
-        <v>85.84341276123287</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S38" t="n">
-        <v>31.1409351608317</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T38" t="n">
-        <v>5.982202684214623</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.8392591522397692</v>
       </c>
       <c r="H39" t="n">
-        <v>7.061703963819812</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I39" t="n">
-        <v>25.17455772751386</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J39" t="n">
-        <v>69.08091057431542</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K39" t="n">
-        <v>118.0702792170545</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L39" t="n">
-        <v>158.7600611847865</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M39" t="n">
         <v>173.4035213848624</v>
@@ -33989,22 +33991,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P39" t="n">
-        <v>139.624190361847</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q39" t="n">
-        <v>93.33507364351127</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R39" t="n">
-        <v>45.39758461027851</v>
+        <v>52.10768666274639</v>
       </c>
       <c r="S39" t="n">
-        <v>13.58143337274154</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T39" t="n">
-        <v>2.947187076635061</v>
+        <v>3.382803337317314</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05521441791051115</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.7036066806956937</v>
       </c>
       <c r="H40" t="n">
-        <v>5.450132714829087</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I40" t="n">
-        <v>18.43460022561821</v>
+        <v>21.1593718158305</v>
       </c>
       <c r="J40" t="n">
-        <v>43.33914327528198</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K40" t="n">
-        <v>71.21952566003647</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L40" t="n">
-        <v>91.13647282036283</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M40" t="n">
-        <v>96.09063231267676</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N40" t="n">
-        <v>93.80581184940493</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O40" t="n">
-        <v>86.6448501535405</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P40" t="n">
-        <v>74.13963766675469</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q40" t="n">
-        <v>51.33044216389641</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R40" t="n">
-        <v>27.56273661303133</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S40" t="n">
-        <v>10.68292884900547</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T40" t="n">
-        <v>2.619184433506819</v>
+        <v>3.006319453881599</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.36657971084286</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H41" t="n">
-        <v>13.99548446366944</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I41" t="n">
-        <v>52.68506430226941</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J41" t="n">
-        <v>115.9867447331493</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K41" t="n">
-        <v>173.8340638931276</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L41" t="n">
-        <v>215.6565277188348</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M41" t="n">
-        <v>239.9594396515365</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N41" t="n">
-        <v>243.8422342549688</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O41" t="n">
-        <v>230.2533072552751</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P41" t="n">
-        <v>196.515870643842</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q41" t="n">
-        <v>147.575234749282</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R41" t="n">
-        <v>85.84341276123287</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S41" t="n">
-        <v>31.1409351608317</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T41" t="n">
-        <v>5.982202684214623</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H42" t="n">
-        <v>7.061703963819812</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I42" t="n">
-        <v>25.17455772751386</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J42" t="n">
-        <v>69.08091057431542</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K42" t="n">
-        <v>118.0702792170545</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L42" t="n">
-        <v>158.7600611847865</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M42" t="n">
         <v>173.4035213848624</v>
@@ -34226,22 +34228,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P42" t="n">
-        <v>139.624190361847</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q42" t="n">
-        <v>93.33507364351127</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R42" t="n">
-        <v>45.39758461027851</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S42" t="n">
-        <v>13.58143337274154</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T42" t="n">
-        <v>2.947187076635061</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H43" t="n">
-        <v>5.450132714829087</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I43" t="n">
-        <v>18.43460022561821</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J43" t="n">
-        <v>43.33914327528198</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K43" t="n">
-        <v>71.21952566003647</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L43" t="n">
-        <v>91.13647282036283</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M43" t="n">
-        <v>96.09063231267676</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N43" t="n">
-        <v>93.80581184940493</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O43" t="n">
-        <v>86.6448501535405</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P43" t="n">
-        <v>74.13963766675469</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q43" t="n">
-        <v>51.33044216389641</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R43" t="n">
-        <v>27.56273661303133</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S43" t="n">
-        <v>10.68292884900547</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T43" t="n">
-        <v>2.619184433506819</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.36657971084286</v>
+        <v>1.599764209150043</v>
       </c>
       <c r="H44" t="n">
-        <v>13.99548446366944</v>
+        <v>16.38358520695788</v>
       </c>
       <c r="I44" t="n">
-        <v>52.68506430226941</v>
+        <v>61.67490967325708</v>
       </c>
       <c r="J44" t="n">
-        <v>115.9867447331493</v>
+        <v>135.7779875463486</v>
       </c>
       <c r="K44" t="n">
-        <v>173.8340638931276</v>
+        <v>203.4960065196699</v>
       </c>
       <c r="L44" t="n">
-        <v>215.6565277188348</v>
+        <v>252.4547904354456</v>
       </c>
       <c r="M44" t="n">
-        <v>239.9594396515365</v>
+        <v>280.9045971899176</v>
       </c>
       <c r="N44" t="n">
-        <v>243.8422342549688</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O44" t="n">
-        <v>230.2533072552751</v>
+        <v>269.5422718944295</v>
       </c>
       <c r="P44" t="n">
-        <v>196.515870643842</v>
+        <v>230.0480929810377</v>
       </c>
       <c r="Q44" t="n">
-        <v>147.575234749282</v>
+        <v>172.7565372408518</v>
       </c>
       <c r="R44" t="n">
-        <v>85.84341276123287</v>
+        <v>100.4911885030215</v>
       </c>
       <c r="S44" t="n">
-        <v>31.1409351608317</v>
+        <v>36.45462691600663</v>
       </c>
       <c r="T44" t="n">
-        <v>5.982202684214623</v>
+        <v>7.002967825554316</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1279811367320034</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.8559493124711768</v>
       </c>
       <c r="H45" t="n">
-        <v>7.061703963819812</v>
+        <v>8.266668359918999</v>
       </c>
       <c r="I45" t="n">
-        <v>25.17455772751386</v>
+        <v>29.47018466183657</v>
       </c>
       <c r="J45" t="n">
-        <v>69.08091057431542</v>
+        <v>80.86843921027028</v>
       </c>
       <c r="K45" t="n">
-        <v>118.0702792170545</v>
+        <v>138.2170431458391</v>
       </c>
       <c r="L45" t="n">
-        <v>158.7600611847865</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M45" t="n">
         <v>173.4035213848624</v>
@@ -34463,22 +34465,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P45" t="n">
-        <v>139.624190361847</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q45" t="n">
-        <v>93.33507364351127</v>
+        <v>109.2611789042155</v>
       </c>
       <c r="R45" t="n">
-        <v>45.39758461027851</v>
+        <v>53.14394064623677</v>
       </c>
       <c r="S45" t="n">
-        <v>13.58143337274154</v>
+        <v>15.89888306278698</v>
       </c>
       <c r="T45" t="n">
-        <v>2.947187076635061</v>
+        <v>3.450076395443031</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05631245476784061</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.7175991503748864</v>
       </c>
       <c r="H46" t="n">
-        <v>5.450132714829087</v>
+        <v>6.380108809696723</v>
       </c>
       <c r="I46" t="n">
-        <v>18.43460022561821</v>
+        <v>21.58016354036478</v>
       </c>
       <c r="J46" t="n">
-        <v>43.33914327528198</v>
+        <v>50.73425993150447</v>
       </c>
       <c r="K46" t="n">
-        <v>71.21952566003647</v>
+        <v>83.37197401628225</v>
       </c>
       <c r="L46" t="n">
-        <v>91.13647282036283</v>
+        <v>106.6874227748263</v>
       </c>
       <c r="M46" t="n">
-        <v>96.09063231267676</v>
+        <v>112.4869286355833</v>
       </c>
       <c r="N46" t="n">
-        <v>93.80581184940493</v>
+        <v>109.812240893277</v>
       </c>
       <c r="O46" t="n">
-        <v>86.6448501535405</v>
+        <v>101.4293780911704</v>
       </c>
       <c r="P46" t="n">
-        <v>74.13963766675469</v>
+        <v>86.7903554235226</v>
       </c>
       <c r="Q46" t="n">
-        <v>51.33044216389641</v>
+        <v>60.08914340093709</v>
       </c>
       <c r="R46" t="n">
-        <v>27.56273661303133</v>
+        <v>32.26586725231079</v>
       </c>
       <c r="S46" t="n">
-        <v>10.68292884900547</v>
+        <v>12.50579610244234</v>
       </c>
       <c r="T46" t="n">
-        <v>2.619184433506819</v>
+        <v>3.066105460692696</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03914177183863022</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_9_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_9_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>116458.3628073219</v>
+        <v>-12410.21847945159</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5691415.601269295</v>
+        <v>5821228.746994839</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22818123.81535394</v>
+        <v>22705420.34219839</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4798402.837097867</v>
+        <v>4851112.016314016</v>
       </c>
     </row>
     <row r="11">
@@ -7984,16 +7984,16 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L2" t="n">
-        <v>270.6444670286918</v>
+        <v>215.1060201295988</v>
       </c>
       <c r="M2" t="n">
-        <v>262.1171336583936</v>
+        <v>200.3199103700811</v>
       </c>
       <c r="N2" t="n">
-        <v>260.6727596612894</v>
+        <v>197.8755926931642</v>
       </c>
       <c r="O2" t="n">
-        <v>246.758517458259</v>
+        <v>203.2816633332895</v>
       </c>
       <c r="P2" t="n">
         <v>208.5255628951208</v>
@@ -8060,22 +8060,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K3" t="n">
-        <v>158.8643559162101</v>
+        <v>128.4574862423794</v>
       </c>
       <c r="L3" t="n">
-        <v>156.5283879628043</v>
+        <v>115.6425992455544</v>
       </c>
       <c r="M3" t="n">
-        <v>158.8073274317979</v>
+        <v>111.0955404568352</v>
       </c>
       <c r="N3" t="n">
-        <v>145.2543769669952</v>
+        <v>96.27980096165828</v>
       </c>
       <c r="O3" t="n">
-        <v>160.2613470196622</v>
+        <v>115.4591779348292</v>
       </c>
       <c r="P3" t="n">
-        <v>152.4484465568465</v>
+        <v>116.4907560372702</v>
       </c>
       <c r="Q3" t="n">
         <v>136.1300824528302</v>
@@ -8221,16 +8221,16 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L5" t="n">
-        <v>255.8266834221102</v>
+        <v>215.1060201295988</v>
       </c>
       <c r="M5" t="n">
-        <v>245.6294943148315</v>
+        <v>200.3199103700811</v>
       </c>
       <c r="N5" t="n">
-        <v>243.9183330758522</v>
+        <v>197.8755926931642</v>
       </c>
       <c r="O5" t="n">
-        <v>246.758517458259</v>
+        <v>203.2816633332895</v>
       </c>
       <c r="P5" t="n">
         <v>208.5255628951208</v>
@@ -8297,22 +8297,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K6" t="n">
-        <v>150.7517341174952</v>
+        <v>128.4574862423794</v>
       </c>
       <c r="L6" t="n">
-        <v>145.6199667947194</v>
+        <v>115.6425992455544</v>
       </c>
       <c r="M6" t="n">
-        <v>146.0777144456295</v>
+        <v>111.0955404568352</v>
       </c>
       <c r="N6" t="n">
-        <v>132.1878490032285</v>
+        <v>96.27980096165828</v>
       </c>
       <c r="O6" t="n">
-        <v>148.3080266862594</v>
+        <v>115.4591779348292</v>
       </c>
       <c r="P6" t="n">
-        <v>142.8548531659551</v>
+        <v>116.4907560372702</v>
       </c>
       <c r="Q6" t="n">
         <v>136.1300824528302</v>
@@ -8455,19 +8455,19 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K8" t="n">
-        <v>210.0462273461148</v>
+        <v>203.4233583632196</v>
       </c>
       <c r="L8" t="n">
-        <v>215.1060201295988</v>
+        <v>206.8897655221818</v>
       </c>
       <c r="M8" t="n">
-        <v>200.3199103700812</v>
+        <v>191.1777440165516</v>
       </c>
       <c r="N8" t="n">
-        <v>197.8755926931642</v>
+        <v>188.5854965301939</v>
       </c>
       <c r="O8" t="n">
-        <v>203.2816633332895</v>
+        <v>194.5092889627086</v>
       </c>
       <c r="P8" t="n">
         <v>208.5255628951208</v>
@@ -8534,25 +8534,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>128.4574862423794</v>
+        <v>123.9591504587257</v>
       </c>
       <c r="L9" t="n">
-        <v>115.6425992455544</v>
+        <v>109.5940316553169</v>
       </c>
       <c r="M9" t="n">
-        <v>111.0955404568352</v>
+        <v>104.0371473715302</v>
       </c>
       <c r="N9" t="n">
-        <v>96.27980096165827</v>
+        <v>89.03459321428942</v>
       </c>
       <c r="O9" t="n">
-        <v>115.4591779348292</v>
+        <v>108.831228312213</v>
       </c>
       <c r="P9" t="n">
-        <v>116.4907560372702</v>
+        <v>111.1712421347601</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.1300824528302</v>
+        <v>135.831616742848</v>
       </c>
       <c r="R9" t="n">
         <v>29.49804203773589</v>
@@ -9640,7 +9640,7 @@
         <v>87.74555168308848</v>
       </c>
       <c r="K23" t="n">
-        <v>68.98158147698734</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L23" t="n">
         <v>40.1028531396922</v>
@@ -9652,10 +9652,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>16.43335224433224</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P23" t="n">
-        <v>56.54187083839042</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q23" t="n">
         <v>101.8249850515391</v>
@@ -9801,7 +9801,7 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L25" t="n">
-        <v>59.95218091677093</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M25" t="n">
         <v>59.1959110048432</v>
@@ -9877,7 +9877,7 @@
         <v>87.74555168308848</v>
       </c>
       <c r="K26" t="n">
-        <v>68.98158147698734</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L26" t="n">
         <v>40.1028531396922</v>
@@ -9889,10 +9889,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>16.43335224433224</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P26" t="n">
-        <v>56.54187083839042</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q26" t="n">
         <v>101.8249850515391</v>
@@ -10038,7 +10038,7 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>59.95218091677093</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M28" t="n">
         <v>59.1959110048432</v>
@@ -10825,7 +10825,7 @@
         <v>87.74555168308848</v>
       </c>
       <c r="K38" t="n">
-        <v>68.98158147698734</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L38" t="n">
         <v>40.1028531396922</v>
@@ -10837,10 +10837,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>16.43335224433224</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P38" t="n">
-        <v>56.54187083839042</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q38" t="n">
         <v>101.8249850515391</v>
@@ -10986,7 +10986,7 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
-        <v>59.95218091677093</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M40" t="n">
         <v>59.1959110048432</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>85.09801597620873</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K44" t="n">
-        <v>65.01361175520637</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L44" t="n">
-        <v>35.18023582793884</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M44" t="n">
-        <v>0.1178073473550967</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>11.17754604002829</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P44" t="n">
-        <v>52.05616184039113</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q44" t="n">
-        <v>98.45640440597657</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11375,10 +11375,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>73.87346532306307</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K45" t="n">
-        <v>29.94951240287884</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q45" t="n">
-        <v>61.51658548073077</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -11460,19 +11460,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>57.87188228828438</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M46" t="n">
-        <v>57.00252778049483</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N46" t="n">
-        <v>45.96412335430749</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O46" t="n">
-        <v>67.48759882007782</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P46" t="n">
-        <v>81.23780951643748</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q46" t="n">
         <v>42.34223702878295</v>
@@ -22561,19 +22561,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G2" t="n">
-        <v>419.1372257337943</v>
+        <v>418.7852877910533</v>
       </c>
       <c r="H2" t="n">
-        <v>350.0840728010472</v>
+        <v>346.4797883449514</v>
       </c>
       <c r="I2" t="n">
-        <v>252.5390011750733</v>
+        <v>238.9709136375527</v>
       </c>
       <c r="J2" t="n">
-        <v>102.1633490996273</v>
+        <v>72.29305613191724</v>
       </c>
       <c r="K2" t="n">
-        <v>44.7678260839346</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -22585,25 +22585,25 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>58.0961346578143</v>
+        <v>7.487018569236724</v>
       </c>
       <c r="Q2" t="n">
-        <v>122.0060719774896</v>
+        <v>84.00073346332248</v>
       </c>
       <c r="R2" t="n">
-        <v>213.6669190178523</v>
+        <v>191.5594972221508</v>
       </c>
       <c r="S2" t="n">
-        <v>234.3316595809324</v>
+        <v>226.3118737107229</v>
       </c>
       <c r="T2" t="n">
-        <v>223.7749849055099</v>
+        <v>222.2343765611613</v>
       </c>
       <c r="U2" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1463106789221</v>
       </c>
       <c r="V2" t="n">
         <v>320.879783609152</v>
@@ -22640,16 +22640,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G3" t="n">
-        <v>148.9046118134526</v>
+        <v>148.7163084132398</v>
       </c>
       <c r="H3" t="n">
-        <v>127.2808586212757</v>
+        <v>125.4622442034314</v>
       </c>
       <c r="I3" t="n">
-        <v>112.8724349482959</v>
+        <v>106.3891819146546</v>
       </c>
       <c r="J3" t="n">
-        <v>67.59235497006948</v>
+        <v>49.80181311049407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22670,19 +22670,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>27.29425231795664</v>
+        <v>3.257488459218298</v>
       </c>
       <c r="R3" t="n">
-        <v>144.6542915277517</v>
+        <v>132.9629628724363</v>
       </c>
       <c r="S3" t="n">
-        <v>194.5628574600357</v>
+        <v>191.0652043902942</v>
       </c>
       <c r="T3" t="n">
-        <v>215.61586546681</v>
+        <v>214.8568706212155</v>
       </c>
       <c r="U3" t="n">
-        <v>237.2385962954956</v>
+        <v>237.2262079139026</v>
       </c>
       <c r="V3" t="n">
         <v>240.6489209154022</v>
@@ -22719,49 +22719,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G4" t="n">
-        <v>168.8349197050291</v>
+        <v>168.6770524598119</v>
       </c>
       <c r="H4" t="n">
-        <v>167.0170666797881</v>
+        <v>165.6134833541297</v>
       </c>
       <c r="I4" t="n">
-        <v>168.8870673881104</v>
+        <v>164.1395687773966</v>
       </c>
       <c r="J4" t="n">
-        <v>129.7236433787886</v>
+        <v>118.5624291419324</v>
       </c>
       <c r="K4" t="n">
-        <v>82.61516433249618</v>
+        <v>64.27386075180667</v>
       </c>
       <c r="L4" t="n">
-        <v>52.09548622449577</v>
+        <v>28.62493233102187</v>
       </c>
       <c r="M4" t="n">
-        <v>46.24466908004986</v>
+        <v>21.49826081386603</v>
       </c>
       <c r="N4" t="n">
-        <v>37.04796687835205</v>
+        <v>12.88997288979596</v>
       </c>
       <c r="O4" t="n">
-        <v>56.43963860165199</v>
+        <v>34.12582106858778</v>
       </c>
       <c r="P4" t="n">
-        <v>74.70280003544025</v>
+        <v>55.60947430480697</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.4497818638882</v>
+        <v>125.2305528121096</v>
       </c>
       <c r="R4" t="n">
-        <v>209.4615981681609</v>
+        <v>202.3633127604856</v>
       </c>
       <c r="S4" t="n">
-        <v>237.7758219951765</v>
+        <v>235.0246264580731</v>
       </c>
       <c r="T4" t="n">
-        <v>224.3347225012506</v>
+        <v>223.6601988171407</v>
       </c>
       <c r="U4" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6552630158016</v>
       </c>
       <c r="V4" t="n">
         <v>245.1090151844499</v>
@@ -22798,19 +22798,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G5" t="n">
-        <v>419.0433278923953</v>
+        <v>418.7852877910533</v>
       </c>
       <c r="H5" t="n">
-        <v>349.1224415328191</v>
+        <v>346.4797883449514</v>
       </c>
       <c r="I5" t="n">
-        <v>248.9190046445362</v>
+        <v>238.9709136375527</v>
       </c>
       <c r="J5" t="n">
-        <v>94.19388718318407</v>
+        <v>72.29305613191724</v>
       </c>
       <c r="K5" t="n">
-        <v>32.82366854106931</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -22825,22 +22825,22 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>44.59350769232816</v>
+        <v>7.487018569236724</v>
       </c>
       <c r="Q5" t="n">
-        <v>111.8661614571072</v>
+        <v>84.00073346332248</v>
       </c>
       <c r="R5" t="n">
-        <v>207.7686087380687</v>
+        <v>191.5594972221508</v>
       </c>
       <c r="S5" t="n">
-        <v>232.1919625200514</v>
+        <v>226.3118737107229</v>
       </c>
       <c r="T5" t="n">
-        <v>223.3639471047855</v>
+        <v>222.2343765611613</v>
       </c>
       <c r="U5" t="n">
-        <v>250.1669538870295</v>
+        <v>250.1463106789221</v>
       </c>
       <c r="V5" t="n">
         <v>320.879783609152</v>
@@ -22877,16 +22877,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G6" t="n">
-        <v>148.8543720391606</v>
+        <v>148.7163084132398</v>
       </c>
       <c r="H6" t="n">
-        <v>126.7956481695613</v>
+        <v>125.4622442034314</v>
       </c>
       <c r="I6" t="n">
-        <v>111.1426883334193</v>
+        <v>106.3891819146546</v>
       </c>
       <c r="J6" t="n">
-        <v>62.8457980489157</v>
+        <v>49.80181311049407</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,19 +22907,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>20.88118919956569</v>
+        <v>3.257488459218298</v>
       </c>
       <c r="R6" t="n">
-        <v>141.5350185239054</v>
+        <v>132.9629628724363</v>
       </c>
       <c r="S6" t="n">
-        <v>193.6296756875513</v>
+        <v>191.0652043902942</v>
       </c>
       <c r="T6" t="n">
-        <v>215.4133639204314</v>
+        <v>214.8568706212155</v>
       </c>
       <c r="U6" t="n">
-        <v>237.2352910471869</v>
+        <v>237.2262079139026</v>
       </c>
       <c r="V6" t="n">
         <v>240.6489209154022</v>
@@ -22956,49 +22956,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G7" t="n">
-        <v>168.7928003659262</v>
+        <v>168.6770524598119</v>
       </c>
       <c r="H7" t="n">
-        <v>166.6425874648544</v>
+        <v>165.6134833541297</v>
       </c>
       <c r="I7" t="n">
-        <v>167.6204239903589</v>
+        <v>164.1395687773966</v>
       </c>
       <c r="J7" t="n">
-        <v>126.7458061042081</v>
+        <v>118.5624291419324</v>
       </c>
       <c r="K7" t="n">
-        <v>77.72166293489558</v>
+        <v>64.27386075180667</v>
       </c>
       <c r="L7" t="n">
-        <v>45.83348920913111</v>
+        <v>28.62493233102187</v>
       </c>
       <c r="M7" t="n">
-        <v>39.64227122411658</v>
+        <v>21.49826081386603</v>
       </c>
       <c r="N7" t="n">
-        <v>30.60255928634805</v>
+        <v>12.88997288979596</v>
       </c>
       <c r="O7" t="n">
-        <v>50.48626147098734</v>
+        <v>34.12582106858778</v>
       </c>
       <c r="P7" t="n">
-        <v>69.60865742247636</v>
+        <v>55.60947430480697</v>
       </c>
       <c r="Q7" t="n">
-        <v>134.9228615686379</v>
+        <v>125.2305528121096</v>
       </c>
       <c r="R7" t="n">
-        <v>207.5677595208579</v>
+        <v>202.3633127604856</v>
       </c>
       <c r="S7" t="n">
-        <v>237.0417967855364</v>
+        <v>235.0246264580731</v>
       </c>
       <c r="T7" t="n">
-        <v>224.154758052356</v>
+        <v>223.6601988171407</v>
       </c>
       <c r="U7" t="n">
-        <v>288.6615765379532</v>
+        <v>288.6552630158016</v>
       </c>
       <c r="V7" t="n">
         <v>245.1090151844499</v>
@@ -23035,16 +23035,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G8" t="n">
-        <v>418.7852877910533</v>
+        <v>418.7332227459356</v>
       </c>
       <c r="H8" t="n">
-        <v>346.4797883449514</v>
+        <v>345.9465772016394</v>
       </c>
       <c r="I8" t="n">
-        <v>238.9709136375527</v>
+        <v>236.9636759856512</v>
       </c>
       <c r="J8" t="n">
-        <v>72.29305613191724</v>
+        <v>67.87410050885586</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23062,22 +23062,22 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>84.00073346332248</v>
+        <v>78.37829432236464</v>
       </c>
       <c r="R8" t="n">
-        <v>191.5594972221508</v>
+        <v>188.2889663317739</v>
       </c>
       <c r="S8" t="n">
-        <v>226.3118737107229</v>
+        <v>225.1254414951025</v>
       </c>
       <c r="T8" t="n">
-        <v>222.2343765611613</v>
+        <v>222.0064618261584</v>
       </c>
       <c r="U8" t="n">
-        <v>250.1463106789221</v>
+        <v>250.1421454753127</v>
       </c>
       <c r="V8" t="n">
         <v>320.879783609152</v>
@@ -23114,16 +23114,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>148.7163084132398</v>
+        <v>148.6884511582035</v>
       </c>
       <c r="H9" t="n">
-        <v>125.4622442034314</v>
+        <v>125.193201766633</v>
       </c>
       <c r="I9" t="n">
-        <v>106.3891819146546</v>
+        <v>105.430061510991</v>
       </c>
       <c r="J9" t="n">
-        <v>49.80181311049407</v>
+        <v>47.16991341427537</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23144,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>132.9629628724363</v>
+        <v>131.2333694413202</v>
       </c>
       <c r="S9" t="n">
-        <v>191.0652043902942</v>
+        <v>190.5477680960885</v>
       </c>
       <c r="T9" t="n">
-        <v>214.8568706212155</v>
+        <v>214.7445863344682</v>
       </c>
       <c r="U9" t="n">
-        <v>237.2262079139026</v>
+        <v>237.2243751997555</v>
       </c>
       <c r="V9" t="n">
         <v>240.6489209154022</v>
@@ -23193,49 +23193,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G10" t="n">
-        <v>168.6770524598119</v>
+        <v>168.6536978729753</v>
       </c>
       <c r="H10" t="n">
-        <v>165.6134833541297</v>
+        <v>165.4058398457096</v>
       </c>
       <c r="I10" t="n">
-        <v>164.1395687773966</v>
+        <v>163.4372326568916</v>
       </c>
       <c r="J10" t="n">
-        <v>118.5624291419324</v>
+        <v>116.9112598525832</v>
       </c>
       <c r="K10" t="n">
-        <v>64.27386075180667</v>
+        <v>61.5604823902426</v>
       </c>
       <c r="L10" t="n">
-        <v>28.62493233102187</v>
+        <v>25.15274221169333</v>
       </c>
       <c r="M10" t="n">
-        <v>21.49826081386603</v>
+        <v>17.83732317001242</v>
       </c>
       <c r="N10" t="n">
-        <v>12.88997288979596</v>
+        <v>9.31608416051521</v>
       </c>
       <c r="O10" t="n">
-        <v>34.12582106858778</v>
+        <v>30.82475637644394</v>
       </c>
       <c r="P10" t="n">
-        <v>55.60947430480697</v>
+        <v>52.78484318413026</v>
       </c>
       <c r="Q10" t="n">
-        <v>125.2305528121096</v>
+        <v>123.2749246361811</v>
       </c>
       <c r="R10" t="n">
-        <v>202.3633127604856</v>
+        <v>201.3132056105407</v>
       </c>
       <c r="S10" t="n">
-        <v>235.0246264580731</v>
+        <v>234.6176197038384</v>
       </c>
       <c r="T10" t="n">
-        <v>223.6601988171407</v>
+        <v>223.5604110370206</v>
       </c>
       <c r="U10" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6539891292468</v>
       </c>
       <c r="V10" t="n">
         <v>245.1090151844499</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>96.12326613555375</v>
+        <v>96.12326613555373</v>
       </c>
       <c r="S24" t="n">
         <v>180.0440037912057</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>83.57640008743158</v>
+        <v>83.57640008743157</v>
       </c>
       <c r="R25" t="n">
         <v>179.9964210683504</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>96.12326613555375</v>
+        <v>96.12326613555373</v>
       </c>
       <c r="S27" t="n">
         <v>180.0440037912057</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.57640008743158</v>
+        <v>83.57640008743157</v>
       </c>
       <c r="R28" t="n">
         <v>179.9964210683504</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>96.12326613555375</v>
+        <v>96.12326613555373</v>
       </c>
       <c r="S39" t="n">
         <v>180.0440037912057</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>83.57640008743158</v>
+        <v>83.57640008743157</v>
       </c>
       <c r="R40" t="n">
         <v>179.9964210683504</v>
@@ -25879,13 +25879,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.6451278854616</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H44" t="n">
-        <v>334.8031257118105</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I44" t="n">
-        <v>195.0148988772292</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>119.9389275525271</v>
+        <v>121.8984057757385</v>
       </c>
       <c r="S44" t="n">
-        <v>200.3304798620524</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T44" t="n">
-        <v>217.2433265744337</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0550978864748</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25958,13 +25958,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.1062690826207</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H45" t="n">
-        <v>119.5705485629778</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I45" t="n">
-        <v>85.3856347858804</v>
+        <v>85.96027407454947</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>95.08701215206337</v>
+        <v>96.12326613555373</v>
       </c>
       <c r="S45" t="n">
-        <v>179.733991385153</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T45" t="n">
-        <v>212.3979840210444</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1860737474145</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26037,19 +26037,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.1656159775701</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H46" t="n">
-        <v>161.0663480847431</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I46" t="n">
-        <v>148.7592789296147</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J46" t="n">
-        <v>82.40386984743405</v>
+        <v>83.39313745375298</v>
       </c>
       <c r="K46" t="n">
-        <v>4.854240360436052</v>
+        <v>6.479910928618636</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.40472155820389</v>
+        <v>83.57640008743157</v>
       </c>
       <c r="R46" t="n">
-        <v>179.367268749866</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S46" t="n">
-        <v>226.1116833993675</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T46" t="n">
-        <v>221.4749702111983</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6273664804066</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>367570.3313343349</v>
+        <v>397649.3403697896</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>377142.0702781233</v>
+        <v>397649.3403697896</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>397649.3403697896</v>
+        <v>400882.8914547577</v>
       </c>
     </row>
     <row r="5">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>426602.2944135904</v>
+        <v>426467.2955164287</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66492.91400965815</v>
+        <v>74035.70591258173</v>
       </c>
       <c r="C2" t="n">
-        <v>68782.34939044419</v>
+        <v>74035.70591258173</v>
       </c>
       <c r="D2" t="n">
-        <v>74035.70591258175</v>
+        <v>74933.73104571657</v>
       </c>
       <c r="E2" t="n">
         <v>85756.49049406018</v>
@@ -26334,16 +26334,16 @@
         <v>85756.49049406018</v>
       </c>
       <c r="I2" t="n">
-        <v>85756.4904940602</v>
+        <v>85756.49049406018</v>
       </c>
       <c r="J2" t="n">
-        <v>85756.4904940602</v>
+        <v>85756.49049406018</v>
       </c>
       <c r="K2" t="n">
         <v>85756.49049406018</v>
       </c>
       <c r="L2" t="n">
-        <v>85756.49049406017</v>
+        <v>85756.49049406018</v>
       </c>
       <c r="M2" t="n">
         <v>85756.49049406018</v>
@@ -26352,10 +26352,10 @@
         <v>85756.49049406018</v>
       </c>
       <c r="O2" t="n">
-        <v>85756.49049406017</v>
+        <v>85756.49049406018</v>
       </c>
       <c r="P2" t="n">
-        <v>85926.24727358876</v>
+        <v>85756.49049406018</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25807.49035540246</v>
+        <v>110166.5695889891</v>
       </c>
       <c r="C3" t="n">
-        <v>21269.01109069894</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>54971.05239346653</v>
+        <v>11091.57184542819</v>
       </c>
       <c r="E3" t="n">
-        <v>221622.9884865199</v>
+        <v>211217.9716426423</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5164.510654100926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46187.91362098721</v>
+        <v>39810.09512564442</v>
       </c>
       <c r="C4" t="n">
-        <v>44694.04822430953</v>
+        <v>39810.09512564441</v>
       </c>
       <c r="D4" t="n">
-        <v>39810.09512564442</v>
+        <v>38703.19140046074</v>
       </c>
       <c r="E4" t="n">
         <v>11977.59146180444</v>
@@ -26459,7 +26459,7 @@
         <v>11977.59146180444</v>
       </c>
       <c r="P4" t="n">
-        <v>11292.09925791138</v>
+        <v>11977.59146180444</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34211.44775812258</v>
+        <v>36119.91923712109</v>
       </c>
       <c r="C5" t="n">
-        <v>34720.63227756931</v>
+        <v>36119.91923712109</v>
       </c>
       <c r="D5" t="n">
-        <v>36119.91923712109</v>
+        <v>36402.25496053328</v>
       </c>
       <c r="E5" t="n">
         <v>8505.965127173942</v>
@@ -26511,7 +26511,7 @@
         <v>8505.965127173942</v>
       </c>
       <c r="P5" t="n">
-        <v>8675.121365168401</v>
+        <v>8505.965127173942</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-39713.9377248541</v>
+        <v>-127984.1996012545</v>
       </c>
       <c r="C6" t="n">
-        <v>-31901.3422021336</v>
+        <v>-17817.63001226535</v>
       </c>
       <c r="D6" t="n">
-        <v>-56865.36084365028</v>
+        <v>-27111.77329502599</v>
       </c>
       <c r="E6" t="n">
-        <v>-156350.0545814381</v>
+        <v>-160891.6272511856</v>
       </c>
       <c r="F6" t="n">
-        <v>65272.93390508181</v>
+        <v>50326.34439145676</v>
       </c>
       <c r="G6" t="n">
-        <v>65272.93390508181</v>
+        <v>50326.34439145676</v>
       </c>
       <c r="H6" t="n">
-        <v>65272.93390508181</v>
+        <v>50326.34439145676</v>
       </c>
       <c r="I6" t="n">
-        <v>65272.93390508182</v>
+        <v>50326.34439145676</v>
       </c>
       <c r="J6" t="n">
-        <v>65272.93390508182</v>
+        <v>50326.34439145676</v>
       </c>
       <c r="K6" t="n">
-        <v>65272.93390508181</v>
+        <v>50326.34439145676</v>
       </c>
       <c r="L6" t="n">
-        <v>65272.93390508179</v>
+        <v>50326.34439145676</v>
       </c>
       <c r="M6" t="n">
-        <v>65272.93390508181</v>
+        <v>50326.34439145676</v>
       </c>
       <c r="N6" t="n">
-        <v>65272.93390508181</v>
+        <v>50326.34439145676</v>
       </c>
       <c r="O6" t="n">
-        <v>65272.93390508179</v>
+        <v>50326.34439145676</v>
       </c>
       <c r="P6" t="n">
-        <v>60794.51599640804</v>
+        <v>50326.34439145676</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.78200725332938</v>
+        <v>114.3265705101416</v>
       </c>
       <c r="C3" t="n">
-        <v>50.1390953013448</v>
+        <v>114.3265705101416</v>
       </c>
       <c r="D3" t="n">
-        <v>114.3265705101416</v>
+        <v>127.2777504831783</v>
       </c>
       <c r="E3" t="n">
         <v>390.181886567612</v>
@@ -26779,7 +26779,7 @@
         <v>390.181886567612</v>
       </c>
       <c r="P3" t="n">
-        <v>397.9413470260735</v>
+        <v>390.181886567612</v>
       </c>
     </row>
     <row r="4">
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.78200725332938</v>
+        <v>114.3265705101416</v>
       </c>
       <c r="C3" t="n">
-        <v>23.35708804801542</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>64.18747520879683</v>
+        <v>12.95117997303663</v>
       </c>
       <c r="E3" t="n">
-        <v>275.8553160574704</v>
+        <v>262.9041360844337</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>7.759460458461433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.459604303558358</v>
       </c>
       <c r="H2" t="n">
-        <v>1.102638117721244</v>
+        <v>4.706922573817035</v>
       </c>
       <c r="I2" t="n">
-        <v>4.150807375412989</v>
+        <v>17.71889491293361</v>
       </c>
       <c r="J2" t="n">
-        <v>9.138047791426191</v>
+        <v>39.00834075913622</v>
       </c>
       <c r="K2" t="n">
-        <v>13.69556484482692</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L2" t="n">
-        <v>16.99055923469257</v>
+        <v>72.52900613378564</v>
       </c>
       <c r="M2" t="n">
-        <v>18.90527087887908</v>
+        <v>80.70249416719159</v>
       </c>
       <c r="N2" t="n">
-        <v>19.21117792655154</v>
+        <v>82.00834489467678</v>
       </c>
       <c r="O2" t="n">
-        <v>18.14057055117347</v>
+        <v>77.43815460116835</v>
       </c>
       <c r="P2" t="n">
-        <v>15.48255726849379</v>
+        <v>66.09167335707137</v>
       </c>
       <c r="Q2" t="n">
-        <v>11.62675572172049</v>
+        <v>49.63209423588766</v>
       </c>
       <c r="R2" t="n">
-        <v>6.76319703769629</v>
+        <v>28.87061883339773</v>
       </c>
       <c r="S2" t="n">
-        <v>2.453447197126607</v>
+        <v>10.47323306733609</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4713094944781883</v>
+        <v>2.011917838826713</v>
       </c>
       <c r="U2" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.03676834428466863</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05760658163923679</v>
+        <v>0.2459099818520028</v>
       </c>
       <c r="H3" t="n">
-        <v>0.55635830162105</v>
+        <v>2.374972719465395</v>
       </c>
       <c r="I3" t="n">
-        <v>1.983384499421091</v>
+        <v>8.466637533062377</v>
       </c>
       <c r="J3" t="n">
-        <v>5.442558662678946</v>
+        <v>23.23310052225435</v>
       </c>
       <c r="K3" t="n">
-        <v>9.30219963250781</v>
+        <v>39.70906930633853</v>
       </c>
       <c r="L3" t="n">
-        <v>12.50795536864218</v>
+        <v>53.3937440858921</v>
       </c>
       <c r="M3" t="n">
-        <v>14.59619395306451</v>
+        <v>62.30798092802718</v>
       </c>
       <c r="N3" t="n">
-        <v>14.9825117746715</v>
+        <v>63.95708778000839</v>
       </c>
       <c r="O3" t="n">
-        <v>13.70607120255999</v>
+        <v>58.50824028739296</v>
       </c>
       <c r="P3" t="n">
-        <v>11.00033048863637</v>
+        <v>46.95802100821271</v>
       </c>
       <c r="Q3" t="n">
-        <v>7.353429614159418</v>
+        <v>31.39019347289776</v>
       </c>
       <c r="R3" t="n">
-        <v>3.576661270548404</v>
+        <v>15.26798992586383</v>
       </c>
       <c r="S3" t="n">
-        <v>1.070016987904244</v>
+        <v>4.56767005764575</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2321949496774499</v>
+        <v>0.991189795271888</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.01617828827973703</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.2061626681330423</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4293902146517402</v>
+        <v>1.832973540310141</v>
       </c>
       <c r="I4" t="n">
-        <v>1.452375081869075</v>
+        <v>6.199873692582764</v>
       </c>
       <c r="J4" t="n">
-        <v>3.414486400149878</v>
+        <v>14.57570063700609</v>
       </c>
       <c r="K4" t="n">
-        <v>5.611050044222121</v>
+        <v>23.95235362491163</v>
       </c>
       <c r="L4" t="n">
-        <v>7.180212239687683</v>
+        <v>30.65076613316158</v>
       </c>
       <c r="M4" t="n">
-        <v>7.570527066707514</v>
+        <v>32.31693533289134</v>
       </c>
       <c r="N4" t="n">
-        <v>7.390516854021208</v>
+        <v>31.5485108425773</v>
       </c>
       <c r="O4" t="n">
-        <v>6.826338504504349</v>
+        <v>29.14015603756857</v>
       </c>
       <c r="P4" t="n">
-        <v>5.841111877021211</v>
+        <v>24.93443760765448</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.044083095252736</v>
+        <v>17.26331214703139</v>
       </c>
       <c r="R4" t="n">
-        <v>2.171537834015854</v>
+        <v>9.269823241691153</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8416575066333181</v>
+        <v>3.592853043736744</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.8808768547502713</v>
       </c>
       <c r="U4" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.0112452364436205</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2015642022164613</v>
+        <v>0.459604303558358</v>
       </c>
       <c r="H5" t="n">
-        <v>2.064269385949336</v>
+        <v>4.706922573817035</v>
       </c>
       <c r="I5" t="n">
-        <v>7.770803905950134</v>
+        <v>17.71889491293361</v>
       </c>
       <c r="J5" t="n">
-        <v>17.1075097078694</v>
+        <v>39.00834075913622</v>
       </c>
       <c r="K5" t="n">
-        <v>25.63972238769222</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L5" t="n">
-        <v>31.80834284127425</v>
+        <v>72.52900613378564</v>
       </c>
       <c r="M5" t="n">
-        <v>35.39291022244124</v>
+        <v>80.70249416719159</v>
       </c>
       <c r="N5" t="n">
-        <v>35.96560451198877</v>
+        <v>82.00834489467678</v>
       </c>
       <c r="O5" t="n">
-        <v>33.96130047619883</v>
+        <v>77.43815460116835</v>
       </c>
       <c r="P5" t="n">
-        <v>28.98518423397994</v>
+        <v>66.09167335707137</v>
       </c>
       <c r="Q5" t="n">
-        <v>21.76666624210291</v>
+        <v>49.63209423588766</v>
       </c>
       <c r="R5" t="n">
-        <v>12.6615073174798</v>
+        <v>28.87061883339773</v>
       </c>
       <c r="S5" t="n">
-        <v>4.593144258007618</v>
+        <v>10.47323306733609</v>
       </c>
       <c r="T5" t="n">
-        <v>0.8823472952025601</v>
+        <v>2.011917838826713</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01612513617731691</v>
+        <v>0.03676834428466863</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1078463559311945</v>
+        <v>0.2459099818520028</v>
       </c>
       <c r="H6" t="n">
-        <v>1.041568753335484</v>
+        <v>2.374972719465395</v>
       </c>
       <c r="I6" t="n">
-        <v>3.713131114297705</v>
+        <v>8.466637533062377</v>
       </c>
       <c r="J6" t="n">
-        <v>10.18911558383272</v>
+        <v>23.23310052225435</v>
       </c>
       <c r="K6" t="n">
-        <v>17.41482143122275</v>
+        <v>39.70906930633853</v>
       </c>
       <c r="L6" t="n">
-        <v>23.41637653672712</v>
+        <v>53.3937440858921</v>
       </c>
       <c r="M6" t="n">
-        <v>27.32580693923291</v>
+        <v>62.30798092802718</v>
       </c>
       <c r="N6" t="n">
-        <v>28.04903973843816</v>
+        <v>63.95708778000839</v>
       </c>
       <c r="O6" t="n">
-        <v>25.65939153596275</v>
+        <v>58.50824028739296</v>
       </c>
       <c r="P6" t="n">
-        <v>20.59392387952783</v>
+        <v>46.95802100821271</v>
       </c>
       <c r="Q6" t="n">
-        <v>13.76649273255037</v>
+        <v>31.39019347289776</v>
       </c>
       <c r="R6" t="n">
-        <v>6.695934274394691</v>
+        <v>15.26798992586383</v>
       </c>
       <c r="S6" t="n">
-        <v>2.003198760388633</v>
+        <v>4.56767005764575</v>
       </c>
       <c r="T6" t="n">
-        <v>0.4346964960559986</v>
+        <v>0.991189795271888</v>
       </c>
       <c r="U6" t="n">
-        <v>0.007095154995473324</v>
+        <v>0.01617828827973703</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09041476201881848</v>
+        <v>0.2061626681330423</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8038694295854958</v>
+        <v>1.832973540310141</v>
       </c>
       <c r="I7" t="n">
-        <v>2.719018479620469</v>
+        <v>6.199873692582764</v>
       </c>
       <c r="J7" t="n">
-        <v>6.392323674730466</v>
+        <v>14.57570063700609</v>
       </c>
       <c r="K7" t="n">
-        <v>10.50455144182273</v>
+        <v>23.95235362491163</v>
       </c>
       <c r="L7" t="n">
-        <v>13.44220925505234</v>
+        <v>30.65076613316158</v>
       </c>
       <c r="M7" t="n">
-        <v>14.17292492264079</v>
+        <v>32.31693533289134</v>
       </c>
       <c r="N7" t="n">
-        <v>13.8359244460252</v>
+        <v>31.5485108425773</v>
       </c>
       <c r="O7" t="n">
-        <v>12.779715635169</v>
+        <v>29.14015603756857</v>
       </c>
       <c r="P7" t="n">
-        <v>10.9352544899851</v>
+        <v>24.93443760765448</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.571003390503064</v>
+        <v>17.26331214703139</v>
       </c>
       <c r="R7" t="n">
-        <v>4.065376481318873</v>
+        <v>9.269823241691153</v>
       </c>
       <c r="S7" t="n">
-        <v>1.575682716273409</v>
+        <v>3.592853043736744</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3863176195349516</v>
+        <v>0.8808768547502713</v>
       </c>
       <c r="U7" t="n">
-        <v>0.004931714291935559</v>
+        <v>0.0112452364436205</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.459604303558358</v>
+        <v>0.5116693486760931</v>
       </c>
       <c r="H8" t="n">
-        <v>4.706922573817035</v>
+        <v>5.24013371712904</v>
       </c>
       <c r="I8" t="n">
-        <v>17.71889491293361</v>
+        <v>19.7261325648351</v>
       </c>
       <c r="J8" t="n">
-        <v>39.00834075913622</v>
+        <v>43.4272963821976</v>
       </c>
       <c r="K8" t="n">
-        <v>58.46339092876153</v>
+        <v>65.08625991165664</v>
       </c>
       <c r="L8" t="n">
-        <v>72.52900613378564</v>
+        <v>80.74526074120264</v>
       </c>
       <c r="M8" t="n">
-        <v>80.70249416719157</v>
+        <v>89.84466052072111</v>
       </c>
       <c r="N8" t="n">
-        <v>82.00834489467677</v>
+        <v>91.29844105764707</v>
       </c>
       <c r="O8" t="n">
-        <v>77.43815460116835</v>
+        <v>86.21052897174916</v>
       </c>
       <c r="P8" t="n">
-        <v>66.09167335707137</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q8" t="n">
-        <v>49.63209423588766</v>
+        <v>55.25453337684549</v>
       </c>
       <c r="R8" t="n">
-        <v>28.87061883339773</v>
+        <v>32.14114972377467</v>
       </c>
       <c r="S8" t="n">
-        <v>10.47323306733609</v>
+        <v>11.65966528295648</v>
       </c>
       <c r="T8" t="n">
-        <v>2.011917838826713</v>
+        <v>2.239832573829599</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.04093354789408744</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.2737672368883457</v>
       </c>
       <c r="H9" t="n">
-        <v>2.374972719465396</v>
+        <v>2.64401515626376</v>
       </c>
       <c r="I9" t="n">
-        <v>8.466637533062377</v>
+        <v>9.425757936725939</v>
       </c>
       <c r="J9" t="n">
-        <v>23.23310052225435</v>
+        <v>25.86500021847305</v>
       </c>
       <c r="K9" t="n">
-        <v>39.70906930633854</v>
+        <v>44.20740508999221</v>
       </c>
       <c r="L9" t="n">
-        <v>53.3937440858921</v>
+        <v>59.44231167612963</v>
       </c>
       <c r="M9" t="n">
-        <v>62.30798092802719</v>
+        <v>69.36637401333215</v>
       </c>
       <c r="N9" t="n">
-        <v>63.95708778000839</v>
+        <v>71.20229552737725</v>
       </c>
       <c r="O9" t="n">
-        <v>58.50824028739296</v>
+        <v>65.13618991000916</v>
       </c>
       <c r="P9" t="n">
-        <v>46.9580210082127</v>
+        <v>52.27753491072279</v>
       </c>
       <c r="Q9" t="n">
-        <v>31.39019347289776</v>
+        <v>34.94614764209831</v>
       </c>
       <c r="R9" t="n">
-        <v>15.26798992586383</v>
+        <v>16.99758335697993</v>
       </c>
       <c r="S9" t="n">
-        <v>4.56767005764575</v>
+        <v>5.085106351851506</v>
       </c>
       <c r="T9" t="n">
-        <v>0.9911897952718879</v>
+        <v>1.103474082019253</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.01801100242686486</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.2295172549696657</v>
       </c>
       <c r="H10" t="n">
-        <v>1.832973540310141</v>
+        <v>2.040617048730302</v>
       </c>
       <c r="I10" t="n">
-        <v>6.199873692582764</v>
+        <v>6.902209813087767</v>
       </c>
       <c r="J10" t="n">
-        <v>14.57570063700609</v>
+        <v>16.22686992635536</v>
       </c>
       <c r="K10" t="n">
-        <v>23.95235362491163</v>
+        <v>26.6657319864757</v>
       </c>
       <c r="L10" t="n">
-        <v>30.65076613316158</v>
+        <v>34.12295625249012</v>
       </c>
       <c r="M10" t="n">
-        <v>32.31693533289134</v>
+        <v>35.97787297674495</v>
       </c>
       <c r="N10" t="n">
-        <v>31.5485108425773</v>
+        <v>35.12239957185805</v>
       </c>
       <c r="O10" t="n">
-        <v>29.14015603756857</v>
+        <v>32.4412207297124</v>
       </c>
       <c r="P10" t="n">
-        <v>24.93443760765448</v>
+        <v>27.75906872833119</v>
       </c>
       <c r="Q10" t="n">
-        <v>17.26331214703139</v>
+        <v>19.21894032295992</v>
       </c>
       <c r="R10" t="n">
-        <v>9.269823241691153</v>
+        <v>10.31993039163606</v>
       </c>
       <c r="S10" t="n">
-        <v>3.592853043736745</v>
+        <v>3.999859797971355</v>
       </c>
       <c r="T10" t="n">
-        <v>0.8808768547502713</v>
+        <v>0.9806646348703896</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.01251912299834542</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32706,13 +32706,13 @@
         <v>16.06412159119821</v>
       </c>
       <c r="I23" t="n">
-        <v>60.47231027898639</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J23" t="n">
         <v>133.1304518394688</v>
       </c>
       <c r="K23" t="n">
-        <v>199.5280367978889</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L23" t="n">
         <v>247.5321731236922</v>
@@ -32727,7 +32727,7 @@
         <v>264.2864656901256</v>
       </c>
       <c r="P23" t="n">
-        <v>225.5623839830384</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q23" t="n">
         <v>169.3879565952893</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8392591522397692</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H24" t="n">
         <v>8.105476549263036</v>
@@ -32812,16 +32812,16 @@
         <v>107.1306945911678</v>
       </c>
       <c r="R24" t="n">
-        <v>52.10768666274639</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S24" t="n">
         <v>15.5888706567343</v>
       </c>
       <c r="T24" t="n">
-        <v>3.382803337317314</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05521441791051115</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7036066806956937</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H25" t="n">
         <v>6.255703033821718</v>
       </c>
       <c r="I25" t="n">
-        <v>21.1593718158305</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J25" t="n">
         <v>49.74499232518554</v>
@@ -32897,7 +32897,7 @@
         <v>12.26194551721495</v>
       </c>
       <c r="T25" t="n">
-        <v>3.006319453881599</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U25" t="n">
         <v>0.03837854621976516</v>
@@ -32943,13 +32943,13 @@
         <v>16.06412159119821</v>
       </c>
       <c r="I26" t="n">
-        <v>60.47231027898639</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J26" t="n">
         <v>133.1304518394688</v>
       </c>
       <c r="K26" t="n">
-        <v>199.5280367978889</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L26" t="n">
         <v>247.5321731236922</v>
@@ -32964,7 +32964,7 @@
         <v>264.2864656901256</v>
       </c>
       <c r="P26" t="n">
-        <v>225.5623839830384</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q26" t="n">
         <v>169.3879565952893</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8392591522397692</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H27" t="n">
         <v>8.105476549263036</v>
@@ -33049,16 +33049,16 @@
         <v>107.1306945911678</v>
       </c>
       <c r="R27" t="n">
-        <v>52.10768666274639</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S27" t="n">
         <v>15.5888706567343</v>
       </c>
       <c r="T27" t="n">
-        <v>3.382803337317314</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05521441791051115</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7036066806956937</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H28" t="n">
         <v>6.255703033821718</v>
       </c>
       <c r="I28" t="n">
-        <v>21.1593718158305</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J28" t="n">
         <v>49.74499232518554</v>
@@ -33134,7 +33134,7 @@
         <v>12.26194551721495</v>
       </c>
       <c r="T28" t="n">
-        <v>3.006319453881599</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U28" t="n">
         <v>0.03837854621976516</v>
@@ -33891,13 +33891,13 @@
         <v>16.06412159119821</v>
       </c>
       <c r="I38" t="n">
-        <v>60.47231027898639</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J38" t="n">
         <v>133.1304518394688</v>
       </c>
       <c r="K38" t="n">
-        <v>199.5280367978889</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L38" t="n">
         <v>247.5321731236922</v>
@@ -33912,7 +33912,7 @@
         <v>264.2864656901256</v>
       </c>
       <c r="P38" t="n">
-        <v>225.5623839830384</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q38" t="n">
         <v>169.3879565952893</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8392591522397692</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H39" t="n">
         <v>8.105476549263036</v>
@@ -33997,16 +33997,16 @@
         <v>107.1306945911678</v>
       </c>
       <c r="R39" t="n">
-        <v>52.10768666274639</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S39" t="n">
         <v>15.5888706567343</v>
       </c>
       <c r="T39" t="n">
-        <v>3.382803337317314</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05521441791051115</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7036066806956937</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H40" t="n">
         <v>6.255703033821718</v>
       </c>
       <c r="I40" t="n">
-        <v>21.1593718158305</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J40" t="n">
         <v>49.74499232518554</v>
@@ -34082,7 +34082,7 @@
         <v>12.26194551721495</v>
       </c>
       <c r="T40" t="n">
-        <v>3.006319453881599</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U40" t="n">
         <v>0.03837854621976516</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.599764209150043</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H44" t="n">
-        <v>16.38358520695788</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I44" t="n">
-        <v>61.67490967325708</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J44" t="n">
-        <v>135.7779875463486</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K44" t="n">
-        <v>203.4960065196699</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L44" t="n">
-        <v>252.4547904354456</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M44" t="n">
-        <v>280.9045971899176</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N44" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O44" t="n">
-        <v>269.5422718944295</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P44" t="n">
-        <v>230.0480929810377</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q44" t="n">
-        <v>172.7565372408518</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R44" t="n">
-        <v>100.4911885030215</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S44" t="n">
-        <v>36.45462691600663</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T44" t="n">
-        <v>7.002967825554316</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1279811367320034</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8559493124711768</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H45" t="n">
-        <v>8.266668359918999</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I45" t="n">
-        <v>29.47018466183657</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J45" t="n">
-        <v>80.86843921027028</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K45" t="n">
-        <v>138.2170431458391</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L45" t="n">
         <v>169.0363433314465</v>
@@ -34465,22 +34465,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P45" t="n">
-        <v>163.4487770454829</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q45" t="n">
-        <v>109.2611789042155</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R45" t="n">
-        <v>53.14394064623677</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S45" t="n">
-        <v>15.89888306278698</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T45" t="n">
-        <v>3.450076395443031</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05631245476784061</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7175991503748864</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H46" t="n">
-        <v>6.380108809696723</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I46" t="n">
-        <v>21.58016354036478</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J46" t="n">
-        <v>50.73425993150447</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K46" t="n">
-        <v>83.37197401628225</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L46" t="n">
-        <v>106.6874227748263</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M46" t="n">
-        <v>112.4869286355833</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N46" t="n">
-        <v>109.812240893277</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O46" t="n">
-        <v>101.4293780911704</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P46" t="n">
-        <v>86.7903554235226</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q46" t="n">
-        <v>60.08914340093709</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R46" t="n">
-        <v>32.26586725231079</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S46" t="n">
-        <v>12.50579610244234</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T46" t="n">
-        <v>3.066105460692696</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03914177183863022</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
